--- a/out.xlsx
+++ b/out.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE914D9-ADFE-4591-B0EC-4D20CBBF4525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="out" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="utwist" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="RRm" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="out" sheetId="1" r:id="rId1"/>
+    <sheet name="utwist" sheetId="2" r:id="rId2"/>
+    <sheet name="RRm" sheetId="3" r:id="rId3"/>
+    <sheet name="FAR-csf" sheetId="4" r:id="rId4"/>
+    <sheet name="FAR-con" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,252 +37,269 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sampleid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSrrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSrrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejects.prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs1feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 3900 Rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs1rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P 1890 Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P 1890 Accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fdelta.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfeed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfeed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdelta.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sfeed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sfeed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdelta.csf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>sampleid</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>csf</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>piflow</t>
+  </si>
+  <si>
+    <t>admt</t>
+  </si>
+  <si>
+    <t>FSrrv</t>
+  </si>
+  <si>
+    <t>FSrrm</t>
+  </si>
+  <si>
+    <t>Prrv</t>
+  </si>
+  <si>
+    <t>Prrm</t>
+  </si>
+  <si>
+    <t>Srrv</t>
+  </si>
+  <si>
+    <t>Srrm</t>
+  </si>
+  <si>
+    <t>Feed.prod</t>
+  </si>
+  <si>
+    <t>Rejects.prod</t>
+  </si>
+  <si>
+    <t>RRm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Screen Feed</t>
+  </si>
+  <si>
+    <t>fs1feed</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>FS 3900 Rejects</t>
+  </si>
+  <si>
+    <t>fs1rejects</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>P 1890 Feed</t>
+  </si>
+  <si>
+    <t>p11feed</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>P 1890 Accepts</t>
+  </si>
+  <si>
+    <t>p11accepts</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>S 1910 Feed</t>
+  </si>
+  <si>
+    <t>s1feed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>S 1910 Accepts</t>
+  </si>
+  <si>
+    <t>s1accepts</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>S 1910 Rejects</t>
+  </si>
+  <si>
+    <t>s1rejects</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Frrv</t>
+  </si>
+  <si>
+    <t>Frrm</t>
+  </si>
+  <si>
+    <t>Feed.cst</t>
+  </si>
+  <si>
+    <t>Feed.csf</t>
+  </si>
+  <si>
+    <t>Drop.cst</t>
+  </si>
+  <si>
+    <t>Drop.csf</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Fdelta.cst</t>
+  </si>
+  <si>
+    <t>Fdelta.csf</t>
+  </si>
+  <si>
+    <t>Pfeed.cst</t>
+  </si>
+  <si>
+    <t>Pfeed.csf</t>
+  </si>
+  <si>
+    <t>Pdelta.cst</t>
+  </si>
+  <si>
+    <t>Pdelta.csf</t>
+  </si>
+  <si>
+    <t>Sfeed.cst</t>
+  </si>
+  <si>
+    <t>Sfeed.csf</t>
+  </si>
+  <si>
+    <t>Sdelta.cst</t>
+  </si>
+  <si>
+    <t>Sdelta.csf</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>accepts</t>
+  </si>
+  <si>
+    <t>rejects</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Screen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -276,27 +308,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -332,149 +363,108 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -533,37 +523,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.89"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,11 +917,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -632,13 +930,13 @@
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>1.38</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>140</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>15051</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -647,29 +945,29 @@
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <f aca="false">E2*G2/62.5</f>
-        <v>332.32608</v>
+      <c r="J2" s="4">
+        <f>E2*G2/62.5</f>
+        <v>332.32607999999993</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="R2" s="4" t="n">
-        <f aca="false">J2*3</f>
-        <v>996.97824</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <f aca="false">J3*3 + J8*2</f>
-        <v>582.01408</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <f aca="false">S2/R2</f>
-        <v>0.583778117363926</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="R2" s="4">
+        <f>J2*3</f>
+        <v>996.9782399999998</v>
+      </c>
+      <c r="S2" s="4">
+        <f>J3*3 + J8*2</f>
+        <v>582.01407999999992</v>
+      </c>
+      <c r="T2" s="5">
+        <f>S2/R2</f>
+        <v>0.58377811736392571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -678,13 +976,13 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F3" s="7">
         <v>360</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>3775</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -693,24 +991,24 @@
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>137.712</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <f aca="false">G3/G2</f>
-        <v>0.250813899408677</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <f aca="false">J3/J2</f>
-        <v>0.414388181631727</v>
+      <c r="J3" s="4">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="K3" s="5">
+        <f>G3/G2</f>
+        <v>0.25081389940867715</v>
+      </c>
+      <c r="L3" s="5">
+        <f>J3/J2</f>
+        <v>0.41438818163172753</v>
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -719,13 +1017,13 @@
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>1.08</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>99</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>8444</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -734,16 +1032,16 @@
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>145.91232</v>
+      <c r="J4" s="4">
+        <v>145.91231999999999</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -752,13 +1050,13 @@
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0.78</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="9">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>6584</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -767,25 +1065,25 @@
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>82.16832</v>
+      <c r="J5" s="4">
+        <v>82.168319999999994</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="M5" s="5" t="n">
-        <f aca="false">(G4-G5)/G4</f>
-        <v>0.2202747513027</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <f aca="false">(J4-J5)/J4</f>
-        <v>0.436865098163061</v>
+      <c r="M5" s="5">
+        <f>(G4-G5)/G4</f>
+        <v>0.22027475130270013</v>
+      </c>
+      <c r="N5" s="5">
+        <f>(J4-J5)/J4</f>
+        <v>0.43686509816306124</v>
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -794,13 +1092,13 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0.91</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>138</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>8260</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -809,16 +1107,16 @@
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>120.2656</v>
+      <c r="J6" s="4">
+        <v>120.26560000000001</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -827,13 +1125,13 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0.46</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>4766</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -842,16 +1140,16 @@
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>35.07776</v>
+      <c r="J7" s="4">
+        <v>35.077759999999998</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -860,13 +1158,13 @@
       <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>1.52</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>341</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>3472</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -875,27 +1173,27 @@
       <c r="I8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="12" t="n">
-        <v>84.43904</v>
+      <c r="J8" s="12">
+        <v>84.439040000000006</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="13" t="n">
-        <f aca="false">G8/G6</f>
-        <v>0.420338983050847</v>
-      </c>
-      <c r="P8" s="13" t="n">
-        <f aca="false">J8/J6</f>
-        <v>0.702104674986031</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="O8" s="13">
+        <f>G8/G6</f>
+        <v>0.42033898305084744</v>
+      </c>
+      <c r="P8" s="13">
+        <f>J8/J6</f>
+        <v>0.70210467498603091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -904,13 +1202,13 @@
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>1.62</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>191</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>12511</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -919,28 +1217,28 @@
       <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>324.28512</v>
+      <c r="J9" s="4">
+        <v>324.28512000000001</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="R9" s="4" t="n">
-        <f aca="false">J9*3</f>
-        <v>972.85536</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <f aca="false">J10*3 + J15*2</f>
-        <v>570.36752</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <f aca="false">S9/R9</f>
-        <v>0.58628193198216</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="R9" s="4">
+        <f>J9*3</f>
+        <v>972.85536000000002</v>
+      </c>
+      <c r="S9" s="4">
+        <f>J10*3 + J15*2</f>
+        <v>570.36752000000001</v>
+      </c>
+      <c r="T9" s="5">
+        <f>S9/R9</f>
+        <v>0.58628193198216028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -949,13 +1247,13 @@
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>2.61</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>393</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>3131</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -964,24 +1262,24 @@
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>130.75056</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <f aca="false">G10/G9</f>
-        <v>0.250259771401167</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <f aca="false">J10/J9</f>
-        <v>0.403196298368547</v>
+      <c r="J10" s="4">
+        <v>130.75056000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <f>G10/G9</f>
+        <v>0.25025977140116695</v>
+      </c>
+      <c r="L10" s="5">
+        <f>J10/J9</f>
+        <v>0.40319629836854681</v>
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -990,13 +1288,13 @@
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>1.34</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>7067</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1005,16 +1303,16 @@
       <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="4">
         <v>151.51648</v>
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1023,13 +1321,13 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0.91</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>5512</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1038,25 +1336,25 @@
       <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>80.25472</v>
+      <c r="J12" s="4">
+        <v>80.254720000000006</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="M12" s="5" t="n">
-        <f aca="false">(G11-G12)/G11</f>
+      <c r="M12" s="5">
+        <f>(G11-G12)/G11</f>
         <v>0.220036790717419</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <f aca="false">(J11-J12)/J11</f>
-        <v>0.47032349220362</v>
+      <c r="N12" s="5">
+        <f>(J11-J12)/J11</f>
+        <v>0.4703234922036203</v>
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1065,13 +1363,13 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F13" s="1">
         <v>214</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>6894</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1080,16 +1378,16 @@
       <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="4">
         <v>123.54048</v>
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1098,13 +1396,13 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>0.52</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>4009</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1113,16 +1411,16 @@
       <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>33.35488</v>
+      <c r="J14" s="4">
+        <v>33.354880000000001</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1131,13 +1429,13 @@
       <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>1.93</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>362</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="10">
         <v>2884</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -1146,27 +1444,27 @@
       <c r="I15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="12" t="n">
-        <v>89.05792</v>
+      <c r="J15" s="12">
+        <v>89.057919999999996</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="13" t="n">
-        <f aca="false">G15/G13</f>
-        <v>0.418334783870032</v>
-      </c>
-      <c r="P15" s="13" t="n">
-        <f aca="false">J15/J13</f>
-        <v>0.720880475776037</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="O15" s="13">
+        <f>G15/G13</f>
+        <v>0.41833478387003192</v>
+      </c>
+      <c r="P15" s="13">
+        <f>J15/J13</f>
+        <v>0.72088047577603709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1175,13 +1473,13 @@
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0.98</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>165</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>18207</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1190,28 +1488,28 @@
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>285.48576</v>
+      <c r="J16" s="4">
+        <v>285.48576000000003</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="R16" s="4" t="n">
-        <f aca="false">J16*3</f>
-        <v>856.45728</v>
-      </c>
-      <c r="S16" s="4" t="n">
-        <f aca="false">J17*3 + J22*2</f>
-        <v>430.55456</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <f aca="false">S16/R16</f>
-        <v>0.50271574549521</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="R16" s="4">
+        <f>J16*3</f>
+        <v>856.45728000000008</v>
+      </c>
+      <c r="S16" s="4">
+        <f>J17*3 + J22*2</f>
+        <v>430.55455999999998</v>
+      </c>
+      <c r="T16" s="5">
+        <f>S16/R16</f>
+        <v>0.50271574549521014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1220,13 +1518,13 @@
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>1.39</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="7">
         <v>345</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>4574</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1235,24 +1533,24 @@
       <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>101.72576</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <f aca="false">G17/G16</f>
-        <v>0.251222057450431</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <f aca="false">J17/J16</f>
-        <v>0.356325163118469</v>
+      <c r="J17" s="4">
+        <v>101.72575999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <f>G17/G16</f>
+        <v>0.25122205745043114</v>
+      </c>
+      <c r="L17" s="5">
+        <f>J17/J16</f>
+        <v>0.35632516311846862</v>
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1261,13 +1559,13 @@
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>0.8</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>94</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>10701</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1276,16 +1574,16 @@
       <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>136.9728</v>
+      <c r="J18" s="4">
+        <v>136.97280000000001</v>
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1294,13 +1592,13 @@
       <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0.6</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="9">
         <v>48</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>8350</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1309,25 +1607,25 @@
       <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="4">
         <v>80.16</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="M19" s="5" t="n">
-        <f aca="false">(G18-G19)/G18</f>
-        <v>0.21969909354266</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <f aca="false">(J18-J19)/J18</f>
-        <v>0.414774320156995</v>
+      <c r="M19" s="5">
+        <f>(G18-G19)/G18</f>
+        <v>0.21969909354265957</v>
+      </c>
+      <c r="N19" s="5">
+        <f>(J18-J19)/J18</f>
+        <v>0.41477432015699472</v>
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1336,13 +1634,13 @@
       <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>0.64</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>176</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>10432</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1351,16 +1649,16 @@
       <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="4">
         <v>106.82368</v>
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1369,13 +1667,13 @@
       <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>0.39</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="9">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>6449</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1384,16 +1682,16 @@
       <c r="I21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>40.24176</v>
+      <c r="J21" s="4">
+        <v>40.241759999999999</v>
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1402,13 +1700,13 @@
       <c r="D22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>0.98</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>332</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>3998</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1417,48 +1715,40 @@
       <c r="I22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="4" t="n">
-        <v>62.68864</v>
+      <c r="J22" s="4">
+        <v>62.688639999999999</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="O22" s="5" t="n">
-        <f aca="false">G22/G20</f>
-        <v>0.383243865030675</v>
-      </c>
-      <c r="P22" s="5" t="n">
-        <f aca="false">J22/J20</f>
-        <v>0.586842168328221</v>
+      <c r="O22" s="5">
+        <f>G22/G20</f>
+        <v>0.38324386503067487</v>
+      </c>
+      <c r="P22" s="5">
+        <f>J22/J20</f>
+        <v>0.58684216832822089</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.45"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1532,23 +1822,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>332.32608</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="4">
+        <v>332.32607999999999</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.38</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>140</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>15051</v>
       </c>
       <c r="G2" s="1"/>
@@ -1566,23 +1856,23 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>137.712</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="C3" s="4">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E3" s="7">
         <v>360</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>3775</v>
       </c>
       <c r="G3" s="1"/>
@@ -1600,47 +1890,47 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>145.91232</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="4">
+        <v>145.91231999999999</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.08</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>99</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>8444</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <f aca="false">F3/F2</f>
-        <v>0.250813899408677</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">C3/C2</f>
-        <v>0.414388181631727</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">D2</f>
+      <c r="G4" s="5">
+        <f>F3/F2</f>
+        <v>0.25081389940867715</v>
+      </c>
+      <c r="H4" s="5">
+        <f>C3/C2</f>
+        <v>0.41438818163172747</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D2</f>
         <v>1.38</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">E2</f>
+      <c r="J4" s="1">
+        <f>E2</f>
         <v>140</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">I4-D5</f>
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">E2-E4</f>
+      <c r="K4" s="1">
+        <f>I4-D5</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L4" s="1">
+        <f>E2-E4</f>
         <v>41</v>
       </c>
       <c r="M4" s="1"/>
@@ -1652,23 +1942,23 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>82.16832</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="4">
+        <v>82.168319999999994</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.78</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="9">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>6584</v>
       </c>
       <c r="G5" s="1"/>
@@ -1677,48 +1967,48 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="5" t="n">
-        <v>0.2202747513027</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0.436865098163061</v>
-      </c>
-      <c r="O5" s="15" t="n">
-        <f aca="false">D4</f>
+      <c r="M5" s="5">
+        <v>0.22027475130269999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.43686509816306102</v>
+      </c>
+      <c r="O5" s="15">
+        <f>D4</f>
         <v>1.08</v>
       </c>
-      <c r="P5" s="15" t="n">
-        <f aca="false">E4</f>
+      <c r="P5" s="15">
+        <f>E4</f>
         <v>99</v>
       </c>
-      <c r="Q5" s="16" t="n">
-        <f aca="false">O5-D5</f>
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="15" t="n">
-        <f aca="false">E4-E5</f>
+      <c r="Q5" s="16">
+        <f>O5-D5</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R5" s="15">
+        <f>E4-E5</f>
         <v>82</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>120.2656</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6" s="4">
+        <v>120.26560000000001</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.91</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>138</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>8260</v>
       </c>
       <c r="G6" s="1"/>
@@ -1736,23 +2026,23 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>35.07776</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="4">
+        <v>35.077759999999998</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.46</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>4766</v>
       </c>
       <c r="G7" s="1"/>
@@ -1770,23 +2060,23 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12" t="n">
-        <v>84.43904</v>
-      </c>
-      <c r="D8" s="10" t="n">
+      <c r="C8" s="12">
+        <v>84.439040000000006</v>
+      </c>
+      <c r="D8" s="10">
         <v>1.52</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>341</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>3472</v>
       </c>
       <c r="G8" s="10"/>
@@ -1801,46 +2091,46 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="13" t="n">
-        <v>0.420338983050847</v>
-      </c>
-      <c r="T8" s="13" t="n">
-        <v>0.702104674986031</v>
-      </c>
-      <c r="U8" s="10" t="n">
-        <f aca="false">D6</f>
+      <c r="S8" s="13">
+        <v>0.42033898305084699</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0.70210467498603102</v>
+      </c>
+      <c r="U8" s="10">
+        <f>D6</f>
         <v>0.91</v>
       </c>
-      <c r="V8" s="10" t="n">
-        <f aca="false">E6</f>
+      <c r="V8" s="10">
+        <f>E6</f>
         <v>138</v>
       </c>
-      <c r="W8" s="10" t="n">
-        <f aca="false">D6-D7</f>
+      <c r="W8" s="10">
+        <f>D6-D7</f>
         <v>0.45</v>
       </c>
-      <c r="X8" s="10" t="n">
-        <f aca="false">E6-E7</f>
+      <c r="X8" s="10">
+        <f>E6-E7</f>
         <v>109</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>324.28512</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="4">
+        <v>324.28512000000001</v>
+      </c>
+      <c r="D9" s="1">
         <v>1.62</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>191</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>12511</v>
       </c>
       <c r="G9" s="1"/>
@@ -1858,23 +2148,23 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>130.75056</v>
-      </c>
-      <c r="D10" s="6" t="n">
+      <c r="C10" s="4">
+        <v>130.75056000000001</v>
+      </c>
+      <c r="D10" s="6">
         <v>2.61</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>393</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>3131</v>
       </c>
       <c r="G10" s="1"/>
@@ -1892,47 +2182,47 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>151.51648</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>1.34</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>7067</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">F10/F9</f>
-        <v>0.250259771401167</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">C10/C9</f>
-        <v>0.403196298368547</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">D9</f>
+      <c r="G11" s="5">
+        <f>F10/F9</f>
+        <v>0.25025977140116695</v>
+      </c>
+      <c r="H11" s="5">
+        <f>C10/C9</f>
+        <v>0.40319629836854681</v>
+      </c>
+      <c r="I11" s="1">
+        <f>D9</f>
         <v>1.62</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">E9</f>
+      <c r="J11" s="1">
+        <f>E9</f>
         <v>191</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">I11-D12</f>
-        <v>0.71</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">E9-E11</f>
+      <c r="K11" s="1">
+        <f>I11-D12</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="L11" s="1">
+        <f>E9-E11</f>
         <v>91</v>
       </c>
       <c r="M11" s="1"/>
@@ -1944,23 +2234,23 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>80.25472</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="4">
+        <v>80.254720000000006</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.91</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="9">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>5512</v>
       </c>
       <c r="G12" s="1"/>
@@ -1969,48 +2259,48 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>0.220036790717419</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>0.47032349220362</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <f aca="false">D11</f>
+      <c r="N12" s="5">
+        <v>0.47032349220362002</v>
+      </c>
+      <c r="O12" s="15">
+        <f>D11</f>
         <v>1.34</v>
       </c>
-      <c r="P12" s="15" t="n">
-        <f aca="false">E11</f>
+      <c r="P12" s="15">
+        <f>E11</f>
         <v>100</v>
       </c>
-      <c r="Q12" s="15" t="n">
-        <f aca="false">O12-D12</f>
-        <v>0.43</v>
-      </c>
-      <c r="R12" s="15" t="n">
-        <f aca="false">E11-E12</f>
+      <c r="Q12" s="15">
+        <f>O12-D12</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="R12" s="15">
+        <f>E11-E12</f>
         <v>62</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>123.54048</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E13" s="1">
         <v>214</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>6894</v>
       </c>
       <c r="G13" s="1"/>
@@ -2028,23 +2318,23 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>33.35488</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="4">
+        <v>33.354880000000001</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.52</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="9">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>4009</v>
       </c>
       <c r="G14" s="1"/>
@@ -2062,23 +2352,23 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>89.05792</v>
-      </c>
-      <c r="D15" s="10" t="n">
+      <c r="C15" s="12">
+        <v>89.057919999999996</v>
+      </c>
+      <c r="D15" s="10">
         <v>1.93</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>362</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="10">
         <v>2884</v>
       </c>
       <c r="G15" s="10"/>
@@ -2093,46 +2383,46 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="13" t="n">
-        <v>0.418334783870032</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>0.720880475776037</v>
-      </c>
-      <c r="U15" s="10" t="n">
-        <f aca="false">D13</f>
-        <v>1.12</v>
-      </c>
-      <c r="V15" s="10" t="n">
-        <f aca="false">E13</f>
+      <c r="S15" s="13">
+        <v>0.41833478387003198</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0.72088047577603698</v>
+      </c>
+      <c r="U15" s="10">
+        <f>D13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V15" s="10">
+        <f>E13</f>
         <v>214</v>
       </c>
-      <c r="W15" s="17" t="n">
-        <f aca="false">D13-D14</f>
-        <v>0.6</v>
-      </c>
-      <c r="X15" s="10" t="n">
-        <f aca="false">E13-E14</f>
+      <c r="W15" s="17">
+        <f>D13-D14</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="X15" s="10">
+        <f>E13-E14</f>
         <v>176</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>285.48576</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16" s="4">
+        <v>285.48576000000003</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.98</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>165</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>18207</v>
       </c>
       <c r="G16" s="1"/>
@@ -2150,23 +2440,23 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>101.72576</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="4">
+        <v>101.72575999999999</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.39</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="7">
         <v>345</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>4574</v>
       </c>
       <c r="G17" s="1"/>
@@ -2184,47 +2474,47 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>136.9728</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="4">
+        <v>136.97280000000001</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.8</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>94</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>10701</v>
       </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">F17/F16</f>
-        <v>0.251222057450431</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">C17/C16</f>
-        <v>0.356325163118469</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false">D16</f>
+      <c r="G18" s="5">
+        <f>F17/F16</f>
+        <v>0.25122205745043114</v>
+      </c>
+      <c r="H18" s="5">
+        <f>C17/C16</f>
+        <v>0.35632516311846862</v>
+      </c>
+      <c r="I18" s="1">
+        <f>D16</f>
         <v>0.98</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">E16</f>
+      <c r="J18" s="1">
+        <f>E16</f>
         <v>165</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <f aca="false">I18-D19</f>
+      <c r="K18" s="1">
+        <f>I18-D19</f>
         <v>0.38</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <f aca="false">E16-E18</f>
+      <c r="L18" s="1">
+        <f>E16-E18</f>
         <v>71</v>
       </c>
       <c r="M18" s="1"/>
@@ -2236,23 +2526,23 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>80.16</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>0.6</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="9">
         <v>48</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>8350</v>
       </c>
       <c r="G19" s="1"/>
@@ -2261,48 +2551,48 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="5" t="n">
-        <v>0.21969909354266</v>
-      </c>
-      <c r="N19" s="5" t="n">
+      <c r="M19" s="5">
+        <v>0.21969909354266001</v>
+      </c>
+      <c r="N19" s="5">
         <v>0.414774320156995</v>
       </c>
-      <c r="O19" s="15" t="n">
-        <f aca="false">D18</f>
+      <c r="O19" s="15">
+        <f>D18</f>
         <v>0.8</v>
       </c>
-      <c r="P19" s="15" t="n">
-        <f aca="false">E18</f>
+      <c r="P19" s="15">
+        <f>E18</f>
         <v>94</v>
       </c>
-      <c r="Q19" s="16" t="n">
-        <f aca="false">O19-D19</f>
-        <v>0.2</v>
-      </c>
-      <c r="R19" s="15" t="n">
-        <f aca="false">E18-E19</f>
+      <c r="Q19" s="16">
+        <f>O19-D19</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="R19" s="15">
+        <f>E18-E19</f>
         <v>46</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>106.82368</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>0.64</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>176</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>10432</v>
       </c>
       <c r="G20" s="1"/>
@@ -2320,23 +2610,23 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>40.24176</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="4">
+        <v>40.241759999999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.39</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="9">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>6449</v>
       </c>
       <c r="G21" s="1"/>
@@ -2354,23 +2644,23 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <v>62.68864</v>
-      </c>
-      <c r="D22" s="10" t="n">
+      <c r="C22" s="12">
+        <v>62.688639999999999</v>
+      </c>
+      <c r="D22" s="10">
         <v>0.98</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="11">
         <v>332</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F22" s="10">
         <v>3998</v>
       </c>
       <c r="G22" s="10"/>
@@ -2385,65 +2675,57 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="13" t="n">
-        <v>0.383243865030675</v>
-      </c>
-      <c r="T22" s="13" t="n">
+      <c r="S22" s="13">
+        <v>0.38324386503067498</v>
+      </c>
+      <c r="T22" s="13">
         <v>0.586842168328221</v>
       </c>
-      <c r="U22" s="10" t="n">
-        <f aca="false">D20</f>
+      <c r="U22" s="10">
+        <f>D20</f>
         <v>0.64</v>
       </c>
-      <c r="V22" s="10" t="n">
-        <f aca="false">E20</f>
+      <c r="V22" s="10">
+        <f>E20</f>
         <v>176</v>
       </c>
-      <c r="W22" s="10" t="n">
-        <f aca="false">D20-D21</f>
+      <c r="W22" s="10">
+        <f>D20-D21</f>
         <v>0.25</v>
       </c>
-      <c r="X22" s="10" t="n">
-        <f aca="false">E20-E21</f>
+      <c r="X22" s="10">
+        <f>E20-E21</f>
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="1020" max="1024" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
@@ -2502,184 +2784,184 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1.38</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>140</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0.250813899408677</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.414388181631727</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="5">
+        <v>0.25081389940867699</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.41438818163172703</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.6</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>41</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>0.2202747513027</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.436865098163061</v>
-      </c>
-      <c r="J2" s="15" t="n">
+      <c r="H2" s="5">
+        <v>0.22027475130269999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.43686509816306102</v>
+      </c>
+      <c r="J2" s="15">
         <v>1.08</v>
       </c>
-      <c r="K2" s="15" t="n">
+      <c r="K2" s="15">
         <v>99</v>
       </c>
-      <c r="L2" s="16" t="n">
+      <c r="L2" s="16">
         <v>0.3</v>
       </c>
-      <c r="M2" s="15" t="n">
+      <c r="M2" s="15">
         <v>82</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>0.420338983050847</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <v>0.702104674986031</v>
-      </c>
-      <c r="P2" s="19" t="n">
+      <c r="N2" s="5">
+        <v>0.42033898305084699</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.70210467498603102</v>
+      </c>
+      <c r="P2" s="19">
         <v>0.91</v>
       </c>
-      <c r="Q2" s="19" t="n">
+      <c r="Q2" s="19">
         <v>138</v>
       </c>
-      <c r="R2" s="19" t="n">
+      <c r="R2" s="19">
         <v>0.45</v>
       </c>
-      <c r="S2" s="19" t="n">
+      <c r="S2" s="19">
         <v>109</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1.62</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>191</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>0.250259771401167</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.403196298368547</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="D3" s="5">
+        <v>0.25025977140116701</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.40319629836854698</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.71</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>91</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>0.220036790717419</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>0.47032349220362</v>
-      </c>
-      <c r="J3" s="15" t="n">
+      <c r="I3" s="5">
+        <v>0.47032349220362002</v>
+      </c>
+      <c r="J3" s="15">
         <v>1.34</v>
       </c>
-      <c r="K3" s="15" t="n">
+      <c r="K3" s="15">
         <v>100</v>
       </c>
-      <c r="L3" s="15" t="n">
+      <c r="L3" s="15">
         <v>0.43</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="15">
         <v>62</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>0.418334783870032</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>0.720880475776037</v>
-      </c>
-      <c r="P3" s="19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q3" s="19" t="n">
+      <c r="N3" s="5">
+        <v>0.41833478387003198</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.72088047577603698</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q3" s="19">
         <v>214</v>
       </c>
-      <c r="R3" s="20" t="n">
+      <c r="R3" s="20">
         <v>0.6</v>
       </c>
-      <c r="S3" s="19" t="n">
+      <c r="S3" s="19">
         <v>176</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>0.98</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>165</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0.251222057450431</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0.356325163118469</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="5">
+        <v>0.25122205745043102</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.35632516311846901</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.38</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>71</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>0.21969909354266</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="5">
+        <v>0.21969909354266001</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.414774320156995</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="15">
         <v>0.8</v>
       </c>
-      <c r="K4" s="15" t="n">
+      <c r="K4" s="15">
         <v>94</v>
       </c>
-      <c r="L4" s="16" t="n">
+      <c r="L4" s="16">
         <v>0.2</v>
       </c>
-      <c r="M4" s="15" t="n">
+      <c r="M4" s="15">
         <v>46</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>0.383243865030675</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5">
+        <v>0.38324386503067498</v>
+      </c>
+      <c r="O4" s="5">
         <v>0.586842168328221</v>
       </c>
-      <c r="P4" s="19" t="n">
+      <c r="P4" s="19">
         <v>0.64</v>
       </c>
-      <c r="Q4" s="19" t="n">
+      <c r="Q4" s="19">
         <v>176</v>
       </c>
-      <c r="R4" s="19" t="n">
+      <c r="R4" s="19">
         <v>0.25</v>
       </c>
-      <c r="S4" s="19" t="n">
+      <c r="S4" s="19">
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2693,7 +2975,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -2705,7 +2987,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2719,7 +3001,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2733,7 +3015,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2743,7 +3025,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2751,7 +3033,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2765,7 +3047,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2779,7 +3061,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -2791,7 +3073,7 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2805,7 +3087,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2819,7 +3101,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2829,7 +3111,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2837,7 +3119,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2851,7 +3133,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2865,7 +3147,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -2878,12 +3160,443 @@
       <c r="M20" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A527B7-36FC-4EDF-99B8-F5F2E7B3CFF4}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8">
+        <f>out!F2</f>
+        <v>140</v>
+      </c>
+      <c r="D2" s="8">
+        <f>out!F4</f>
+        <v>99</v>
+      </c>
+      <c r="E2" s="8">
+        <f>out!F3</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8">
+        <f>out!F9</f>
+        <v>191</v>
+      </c>
+      <c r="D3" s="8">
+        <f>out!F11</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="8">
+        <f>out!F10</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8">
+        <f>out!F16</f>
+        <v>165</v>
+      </c>
+      <c r="D4" s="8">
+        <f>out!F18</f>
+        <v>94</v>
+      </c>
+      <c r="E4" s="8">
+        <f>out!F17</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <f>D2</f>
+        <v>99</v>
+      </c>
+      <c r="D5" s="8">
+        <f>out!F5</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="8">
+        <f>out!F6</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C7" si="0">D3</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="8">
+        <f>out!F12</f>
+        <v>38</v>
+      </c>
+      <c r="E6" s="8">
+        <f>out!F13</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D7" s="8">
+        <f>out!F19</f>
+        <v>48</v>
+      </c>
+      <c r="E7" s="8">
+        <f>out!F20</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
+        <f>E5</f>
+        <v>138</v>
+      </c>
+      <c r="D8" s="8">
+        <f>out!F7</f>
+        <v>29</v>
+      </c>
+      <c r="E8" s="8">
+        <f>out!F8</f>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:C10" si="1">E6</f>
+        <v>214</v>
+      </c>
+      <c r="D9" s="8">
+        <f>out!F14</f>
+        <v>38</v>
+      </c>
+      <c r="E9" s="8">
+        <f>out!F15</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D10" s="8">
+        <f>out!F21</f>
+        <v>58</v>
+      </c>
+      <c r="E10" s="8">
+        <f>out!F22</f>
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C3B83D-07F9-42CF-81B8-88F53D1E2659}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8">
+        <f>out!E2</f>
+        <v>1.38</v>
+      </c>
+      <c r="D2" s="8">
+        <f>out!E4</f>
+        <v>1.08</v>
+      </c>
+      <c r="E2" s="8">
+        <f>out!E3</f>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8">
+        <f>out!E9</f>
+        <v>1.62</v>
+      </c>
+      <c r="D3" s="8">
+        <f>out!E11</f>
+        <v>1.34</v>
+      </c>
+      <c r="E3" s="8">
+        <f>out!E10</f>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8">
+        <f>out!E16</f>
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="8">
+        <f>out!E18</f>
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="8">
+        <f>out!E17</f>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <f>D2</f>
+        <v>1.08</v>
+      </c>
+      <c r="D5" s="8">
+        <f>out!E5</f>
+        <v>0.78</v>
+      </c>
+      <c r="E5" s="8">
+        <f>out!E6</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C7" si="0">D3</f>
+        <v>1.34</v>
+      </c>
+      <c r="D6" s="8">
+        <f>out!E12</f>
+        <v>0.91</v>
+      </c>
+      <c r="E6" s="8">
+        <f>out!E13</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="8">
+        <f>out!E19</f>
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="8">
+        <f>out!E20</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
+        <f>E5</f>
+        <v>0.91</v>
+      </c>
+      <c r="D8" s="8">
+        <f>out!E7</f>
+        <v>0.46</v>
+      </c>
+      <c r="E8" s="8">
+        <f>out!E8</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:C10" si="1">E6</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <f>out!E14</f>
+        <v>0.52</v>
+      </c>
+      <c r="E9" s="8">
+        <f>out!E15</f>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D10" s="8">
+        <f>out!E21</f>
+        <v>0.39</v>
+      </c>
+      <c r="E10" s="8">
+        <f>out!E22</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE914D9-ADFE-4591-B0EC-4D20CBBF4525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F143F62-DBF6-473E-9F31-05DF42421C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
     <sheet name="utwist" sheetId="2" r:id="rId2"/>
     <sheet name="RRm" sheetId="3" r:id="rId3"/>
-    <sheet name="FAR-csf" sheetId="4" r:id="rId4"/>
-    <sheet name="FAR-con" sheetId="5" r:id="rId5"/>
+    <sheet name="FAR-rrm" sheetId="6" r:id="rId4"/>
+    <sheet name="FAR-csf" sheetId="4" r:id="rId5"/>
+    <sheet name="FAR-con" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="87">
   <si>
     <t>trial</t>
   </si>
@@ -289,6 +290,15 @@
   </si>
   <si>
     <t>Screen</t>
+  </si>
+  <si>
+    <t>RRv</t>
+  </si>
+  <si>
+    <t>feedcst</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -844,7 +854,7 @@
   <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2719,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3170,11 +3180,219 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F084A57-A247-4047-A2D6-323408F344BB}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="D2" s="4">
+        <v>25.081389940867716</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41.438818163172755</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25.025977140116694</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40.319629836854681</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25.122205745043114</v>
+      </c>
+      <c r="E4" s="4">
+        <v>35.632516311846864</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22.027475130270012</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43.686509816306121</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>22.0036790717419</v>
+      </c>
+      <c r="E6" s="4">
+        <v>47.032349220362029</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.969909354265958</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41.47743201569947</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42.03389830508474</v>
+      </c>
+      <c r="E8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41.83347838700319</v>
+      </c>
+      <c r="E9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="D10" s="4">
+        <v>38.324386503067487</v>
+      </c>
+      <c r="E10" s="4">
+        <v>58.684216832822088</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A527B7-36FC-4EDF-99B8-F5F2E7B3CFF4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3182,7 +3400,7 @@
     <col min="1" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3416,14 @@
       <c r="E1" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3218,8 +3442,14 @@
         <f>out!F3</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>25.081389940867716</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41.438818163172755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3238,8 +3468,14 @@
         <f>out!F10</f>
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>25.025977140116694</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40.319629836854681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3258,8 +3494,14 @@
         <f>out!F17</f>
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>25.122205745043114</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35.632516311846864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3278,8 +3520,14 @@
         <f>out!F6</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>22.027475130270012</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43.686509816306121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -3298,8 +3546,14 @@
         <f>out!F13</f>
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>22.0036790717419</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47.032349220362029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -3318,8 +3572,14 @@
         <f>out!F20</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>21.969909354265958</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41.47743201569947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -3338,8 +3598,14 @@
         <f>out!F8</f>
         <v>341</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>42.03389830508474</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -3358,8 +3624,14 @@
         <f>out!F15</f>
         <v>362</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>41.83347838700319</v>
+      </c>
+      <c r="G9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -3378,6 +3650,108 @@
         <f>out!F22</f>
         <v>332</v>
       </c>
+      <c r="F10" s="4">
+        <v>38.324386503067487</v>
+      </c>
+      <c r="G10" s="4">
+        <v>58.684216832822088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4">
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>20.82199691565522</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.STDEV.P(D2:D4)</f>
+        <v>2.6246692913372702</v>
+      </c>
+      <c r="E11" s="4">
+        <f>_xlfn.STDEV.P(E2:E4)</f>
+        <v>20.049937655763422</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:G11" si="2">_xlfn.STDEV.P(F2:F4)</f>
+        <v>3.9435534967620714E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5151707893144999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4">
+        <f>_xlfn.STDEV.P(C5:C7)</f>
+        <v>2.6246692913372702</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.STDEV.P(D5:D7)</f>
+        <v>12.918548250050733</v>
+      </c>
+      <c r="E12" s="4">
+        <f>_xlfn.STDEV.P(E5:E7)</f>
+        <v>31.026870075253587</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:G12" si="3">_xlfn.STDEV.P(F5:F7)</f>
+        <v>2.3618412748501523E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.283558898773832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4">
+        <f>_xlfn.STDEV.P(C8:C10)</f>
+        <v>31.026870075253587</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.P(D8:D10)</f>
+        <v>12.119772641798562</v>
+      </c>
+      <c r="E13" s="4">
+        <f>_xlfn.STDEV.P(E8:E10)</f>
+        <v>12.569805089976535</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:G13" si="4">_xlfn.STDEV.P(F8:F10)</f>
+        <v>1.7034074283549212</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>5.9258608375889139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3385,12 +3759,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C3B83D-07F9-42CF-81B8-88F53D1E2659}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3398,7 +3772,7 @@
     <col min="1" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>66</v>
       </c>
@@ -3414,8 +3788,14 @@
       <c r="E1" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3434,8 +3814,14 @@
         <f>out!E3</f>
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>25.081389940867716</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41.438818163172755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3454,8 +3840,14 @@
         <f>out!E10</f>
         <v>2.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>25.025977140116694</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40.319629836854681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3474,8 +3866,14 @@
         <f>out!E17</f>
         <v>1.39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>25.122205745043114</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35.632516311846864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3494,8 +3892,14 @@
         <f>out!E6</f>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>22.027475130270012</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43.686509816306121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -3514,8 +3918,14 @@
         <f>out!E13</f>
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>22.0036790717419</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47.032349220362029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -3534,8 +3944,14 @@
         <f>out!E20</f>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>21.969909354265958</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41.47743201569947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -3554,8 +3970,14 @@
         <f>out!E8</f>
         <v>1.52</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>42.03389830508474</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -3574,8 +3996,14 @@
         <f>out!E15</f>
         <v>1.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>41.83347838700319</v>
+      </c>
+      <c r="G9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -3594,6 +4022,108 @@
         <f>out!E22</f>
         <v>0.98</v>
       </c>
+      <c r="F10" s="4">
+        <v>38.324386503067487</v>
+      </c>
+      <c r="G10" s="4">
+        <v>58.684216832822088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4">
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>0.26398653164297781</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.STDEV.P(D2:D4)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="E11" s="4">
+        <f>_xlfn.STDEV.P(E2:E4)</f>
+        <v>0.51525613910839441</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:G11" si="2">_xlfn.STDEV.P(F2:F4)</f>
+        <v>3.9435534967620714E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5151707893144999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4">
+        <f>_xlfn.STDEV.P(C5:C7)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.STDEV.P(D5:D7)</f>
+        <v>0.12710450643291726</v>
+      </c>
+      <c r="E12" s="4">
+        <f>_xlfn.STDEV.P(E5:E7)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:G12" si="3">_xlfn.STDEV.P(F5:F7)</f>
+        <v>2.3618412748501523E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>2.283558898773832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4">
+        <f>_xlfn.STDEV.P(C8:C10)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.P(D8:D10)</f>
+        <v>5.3124591501697516E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f>_xlfn.STDEV.P(E8:E10)</f>
+        <v>0.38904441334577178</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:G13" si="4">_xlfn.STDEV.P(F8:F10)</f>
+        <v>1.7034074283549212</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>5.9258608375889139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD9A391-8CC3-42ED-8480-8C3224CFB2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="out" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="utwist" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="RRm" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="FAR-rrm" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FAR-csf" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="FAR-con" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="out" sheetId="1" r:id="rId1"/>
+    <sheet name="TrialParameters" sheetId="7" r:id="rId2"/>
+    <sheet name="utwist" sheetId="2" r:id="rId3"/>
+    <sheet name="RRm" sheetId="3" r:id="rId4"/>
+    <sheet name="FAR-rrm" sheetId="4" r:id="rId5"/>
+    <sheet name="FAR-csf" sheetId="5" r:id="rId6"/>
+    <sheet name="FAR-con" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,288 +39,302 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
-  <si>
-    <t xml:space="preserve">trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sampleid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSrrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSrrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejects.prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs1feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS 3900 Rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs1rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P 1890 Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P 1890 Accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p11accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S 1910 Rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frrv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fdelta.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfeed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfeed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdelta.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sfeed.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sfeed.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdelta.cst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdelta.csf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedcst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RRv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rrmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combined</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="95">
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>sampleid</t>
+  </si>
+  <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>csf</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>piflow</t>
+  </si>
+  <si>
+    <t>admt</t>
+  </si>
+  <si>
+    <t>FSrrv</t>
+  </si>
+  <si>
+    <t>FSrrm</t>
+  </si>
+  <si>
+    <t>Prrv</t>
+  </si>
+  <si>
+    <t>Prrm</t>
+  </si>
+  <si>
+    <t>Srrv</t>
+  </si>
+  <si>
+    <t>Srrm</t>
+  </si>
+  <si>
+    <t>Feed.prod</t>
+  </si>
+  <si>
+    <t>Rejects.prod</t>
+  </si>
+  <si>
+    <t>RRm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Screen Feed</t>
+  </si>
+  <si>
+    <t>fs1feed</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>FS 3900 Rejects</t>
+  </si>
+  <si>
+    <t>fs1rejects</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>P 1890 Feed</t>
+  </si>
+  <si>
+    <t>p11feed</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>P 1890 Accepts</t>
+  </si>
+  <si>
+    <t>p11accepts</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>S 1910 Feed</t>
+  </si>
+  <si>
+    <t>s1feed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>S 1910 Accepts</t>
+  </si>
+  <si>
+    <t>s1accepts</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>S 1910 Rejects</t>
+  </si>
+  <si>
+    <t>s1rejects</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Frrv</t>
+  </si>
+  <si>
+    <t>Frrm</t>
+  </si>
+  <si>
+    <t>Feed.cst</t>
+  </si>
+  <si>
+    <t>Feed.csf</t>
+  </si>
+  <si>
+    <t>Drop.cst</t>
+  </si>
+  <si>
+    <t>Drop.csf</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Fdelta.cst</t>
+  </si>
+  <si>
+    <t>Fdelta.csf</t>
+  </si>
+  <si>
+    <t>Pfeed.cst</t>
+  </si>
+  <si>
+    <t>Pfeed.csf</t>
+  </si>
+  <si>
+    <t>Pdelta.cst</t>
+  </si>
+  <si>
+    <t>Pdelta.csf</t>
+  </si>
+  <si>
+    <t>Sfeed.cst</t>
+  </si>
+  <si>
+    <t>Sfeed.csf</t>
+  </si>
+  <si>
+    <t>Sdelta.cst</t>
+  </si>
+  <si>
+    <t>Sdelta.csf</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>feedcst</t>
+  </si>
+  <si>
+    <t>RRv</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>accepts</t>
+  </si>
+  <si>
+    <t>rejects</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Rrmt</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Feed Con</t>
+  </si>
+  <si>
+    <t>Reject Rates (%)</t>
+  </si>
+  <si>
+    <t>ADMT/D</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>FPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="General"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -315,27 +343,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -371,145 +398,123 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -568,37 +573,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:T22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R22" activeCellId="0" sqref="R22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.89"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,11 +967,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -667,13 +980,13 @@
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>1.38</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>140</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>15051</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -682,29 +995,29 @@
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <f aca="false">E2*G2/62.5</f>
-        <v>332.32608</v>
+      <c r="J2" s="4">
+        <f>E2*G2/62.5</f>
+        <v>332.32607999999993</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="R2" s="4" t="n">
-        <f aca="false">J2*3</f>
-        <v>996.97824</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <f aca="false">J3*3 + J8*2</f>
-        <v>582.01408</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <f aca="false">S2/R2</f>
-        <v>0.583778117363926</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="R2" s="4">
+        <f>J2*3</f>
+        <v>996.9782399999998</v>
+      </c>
+      <c r="S2" s="4">
+        <f>J3*3 + J8*2</f>
+        <v>582.01407999999992</v>
+      </c>
+      <c r="T2" s="5">
+        <f>S2/R2</f>
+        <v>0.58377811736392571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -713,13 +1026,13 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F3" s="7">
         <v>360</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>3775</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -728,24 +1041,24 @@
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>137.712</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <f aca="false">G3/G2</f>
-        <v>0.250813899408677</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <f aca="false">J3/J2</f>
-        <v>0.414388181631727</v>
+      <c r="J3" s="4">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="K3" s="5">
+        <f>G3/G2</f>
+        <v>0.25081389940867715</v>
+      </c>
+      <c r="L3" s="5">
+        <f>J3/J2</f>
+        <v>0.41438818163172753</v>
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -754,13 +1067,13 @@
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>1.08</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>99</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>8444</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -769,16 +1082,16 @@
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>145.91232</v>
+      <c r="J4" s="4">
+        <v>145.91231999999999</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -787,13 +1100,13 @@
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0.78</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>6584</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -802,25 +1115,25 @@
       <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>82.16832</v>
+      <c r="J5" s="4">
+        <v>82.168319999999994</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="M5" s="5" t="n">
-        <f aca="false">(G4-G5)/G4</f>
-        <v>0.2202747513027</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <f aca="false">(J4-J5)/J4</f>
-        <v>0.436865098163061</v>
+      <c r="M5" s="5">
+        <f>(G4-G5)/G4</f>
+        <v>0.22027475130270013</v>
+      </c>
+      <c r="N5" s="5">
+        <f>(J4-J5)/J4</f>
+        <v>0.43686509816306124</v>
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -829,13 +1142,13 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0.91</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>138</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>8260</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -844,16 +1157,16 @@
       <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>120.2656</v>
+      <c r="J6" s="4">
+        <v>120.26560000000001</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -862,13 +1175,13 @@
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0.46</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>4766</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -877,16 +1190,16 @@
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>35.07776</v>
+      <c r="J7" s="4">
+        <v>35.077759999999998</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -895,13 +1208,13 @@
       <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="9">
         <v>1.52</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>341</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>3472</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -910,27 +1223,27 @@
       <c r="I8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="11" t="n">
-        <v>84.43904</v>
+      <c r="J8" s="11">
+        <v>84.439040000000006</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="12" t="n">
-        <f aca="false">G8/G6</f>
-        <v>0.420338983050847</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <f aca="false">J8/J6</f>
-        <v>0.702104674986031</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="O8" s="12">
+        <f>G8/G6</f>
+        <v>0.42033898305084744</v>
+      </c>
+      <c r="P8" s="12">
+        <f>J8/J6</f>
+        <v>0.70210467498603091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -939,13 +1252,13 @@
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>1.62</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>191</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>12511</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -954,28 +1267,28 @@
       <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>324.28512</v>
+      <c r="J9" s="4">
+        <v>324.28512000000001</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="R9" s="4" t="n">
-        <f aca="false">J9*3</f>
-        <v>972.85536</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <f aca="false">J10*3 + J15*2</f>
-        <v>570.36752</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <f aca="false">S9/R9</f>
-        <v>0.58628193198216</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="R9" s="4">
+        <f>J9*3</f>
+        <v>972.85536000000002</v>
+      </c>
+      <c r="S9" s="4">
+        <f>J10*3 + J15*2</f>
+        <v>570.36752000000001</v>
+      </c>
+      <c r="T9" s="5">
+        <f>S9/R9</f>
+        <v>0.58628193198216028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -984,13 +1297,13 @@
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>2.61</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>393</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>3131</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -999,24 +1312,24 @@
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>130.75056</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <f aca="false">G10/G9</f>
-        <v>0.250259771401167</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <f aca="false">J10/J9</f>
-        <v>0.403196298368547</v>
+      <c r="J10" s="4">
+        <v>130.75056000000001</v>
+      </c>
+      <c r="K10" s="5">
+        <f>G10/G9</f>
+        <v>0.25025977140116695</v>
+      </c>
+      <c r="L10" s="5">
+        <f>J10/J9</f>
+        <v>0.40319629836854681</v>
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1025,13 +1338,13 @@
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>1.34</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>7067</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1040,16 +1353,16 @@
       <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="J11" s="4">
         <v>151.51648</v>
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1058,13 +1371,13 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0.91</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>5512</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1073,25 +1386,25 @@
       <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>80.25472</v>
+      <c r="J12" s="4">
+        <v>80.254720000000006</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="M12" s="5" t="n">
-        <f aca="false">(G11-G12)/G11</f>
+      <c r="M12" s="5">
+        <f>(G11-G12)/G11</f>
         <v>0.220036790717419</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <f aca="false">(J11-J12)/J11</f>
-        <v>0.47032349220362</v>
+      <c r="N12" s="5">
+        <f>(J11-J12)/J11</f>
+        <v>0.4703234922036203</v>
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1100,13 +1413,13 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F13" s="1">
         <v>214</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>6894</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1115,16 +1428,16 @@
       <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="4">
         <v>123.54048</v>
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1133,13 +1446,13 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>0.52</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>4009</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1148,16 +1461,16 @@
       <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>33.35488</v>
+      <c r="J14" s="4">
+        <v>33.354880000000001</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1166,13 +1479,13 @@
       <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="9">
         <v>1.93</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="10">
         <v>362</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="9">
         <v>2884</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -1181,27 +1494,27 @@
       <c r="I15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="11" t="n">
-        <v>89.05792</v>
+      <c r="J15" s="11">
+        <v>89.057919999999996</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="12" t="n">
-        <f aca="false">G15/G13</f>
-        <v>0.418334783870032</v>
-      </c>
-      <c r="P15" s="12" t="n">
-        <f aca="false">J15/J13</f>
-        <v>0.720880475776037</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="O15" s="12">
+        <f>G15/G13</f>
+        <v>0.41833478387003192</v>
+      </c>
+      <c r="P15" s="12">
+        <f>J15/J13</f>
+        <v>0.72088047577603709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1210,13 +1523,13 @@
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0.98</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>165</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>18207</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1225,28 +1538,28 @@
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>285.48576</v>
+      <c r="J16" s="4">
+        <v>285.48576000000003</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="R16" s="4" t="n">
-        <f aca="false">J16*3</f>
-        <v>856.45728</v>
-      </c>
-      <c r="S16" s="4" t="n">
-        <f aca="false">J17*3 + J22*2</f>
-        <v>430.55456</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <f aca="false">S16/R16</f>
-        <v>0.50271574549521</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="R16" s="4">
+        <f>J16*3</f>
+        <v>856.45728000000008</v>
+      </c>
+      <c r="S16" s="4">
+        <f>J17*3 + J22*2</f>
+        <v>430.55455999999998</v>
+      </c>
+      <c r="T16" s="5">
+        <f>S16/R16</f>
+        <v>0.50271574549521014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1255,13 +1568,13 @@
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>1.39</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="7">
         <v>345</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>4574</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1270,24 +1583,24 @@
       <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>101.72576</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <f aca="false">G17/G16</f>
-        <v>0.251222057450431</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <f aca="false">J17/J16</f>
-        <v>0.356325163118469</v>
+      <c r="J17" s="4">
+        <v>101.72575999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <f>G17/G16</f>
+        <v>0.25122205745043114</v>
+      </c>
+      <c r="L17" s="5">
+        <f>J17/J16</f>
+        <v>0.35632516311846862</v>
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1296,13 +1609,13 @@
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>0.8</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>94</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>10701</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -1311,16 +1624,16 @@
       <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>136.9728</v>
+      <c r="J18" s="4">
+        <v>136.97280000000001</v>
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1329,13 +1642,13 @@
       <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0.6</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>48</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>8350</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -1344,25 +1657,25 @@
       <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="4" t="n">
+      <c r="J19" s="4">
         <v>80.16</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="M19" s="5" t="n">
-        <f aca="false">(G18-G19)/G18</f>
-        <v>0.21969909354266</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <f aca="false">(J18-J19)/J18</f>
-        <v>0.414774320156995</v>
+      <c r="M19" s="5">
+        <f>(G18-G19)/G18</f>
+        <v>0.21969909354265957</v>
+      </c>
+      <c r="N19" s="5">
+        <f>(J18-J19)/J18</f>
+        <v>0.41477432015699472</v>
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1371,13 +1684,13 @@
       <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>0.64</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>176</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>10432</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1386,16 +1699,16 @@
       <c r="I20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="4">
         <v>106.82368</v>
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1404,13 +1717,13 @@
       <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>0.39</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>58</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>6449</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1419,16 +1732,16 @@
       <c r="I21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>40.24176</v>
+      <c r="J21" s="4">
+        <v>40.241759999999999</v>
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1437,13 +1750,13 @@
       <c r="D22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>0.98</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>332</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>3998</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1452,48 +1765,180 @@
       <c r="I22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="4" t="n">
-        <v>62.68864</v>
+      <c r="J22" s="4">
+        <v>62.688639999999999</v>
       </c>
       <c r="K22" s="4"/>
-      <c r="O22" s="5" t="n">
-        <f aca="false">G22/G20</f>
-        <v>0.383243865030675</v>
-      </c>
-      <c r="P22" s="5" t="n">
-        <f aca="false">J22/J20</f>
-        <v>0.586842168328221</v>
+      <c r="O22" s="5">
+        <f>G22/G20</f>
+        <v>0.38324386503067487</v>
+      </c>
+      <c r="P22" s="5">
+        <f>J22/J20</f>
+        <v>0.58684216832822089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J24" s="20">
+        <f>J2*3</f>
+        <v>996.9782399999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J25" s="20">
+        <f>J9*3</f>
+        <v>972.85536000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J26" s="20">
+        <f>J16*3</f>
+        <v>856.45728000000008</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2F88A-A2D5-4C5A-A713-359268450BDA}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20">
+        <v>996.9782399999998</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="23">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23">
+        <v>22</v>
+      </c>
+      <c r="G4" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>972.85536000000002</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.55</v>
+      </c>
+      <c r="E5" s="23">
+        <v>25</v>
+      </c>
+      <c r="F5" s="23">
+        <v>22</v>
+      </c>
+      <c r="G5" s="23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20">
+        <v>856.45728000000008</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>25</v>
+      </c>
+      <c r="F6" s="23">
+        <v>22</v>
+      </c>
+      <c r="G6" s="23">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.45"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1567,23 +2012,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>332.32608</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="4">
+        <v>332.32607999999999</v>
+      </c>
+      <c r="D2" s="1">
         <v>1.38</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>140</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>15051</v>
       </c>
       <c r="G2" s="1"/>
@@ -1601,23 +2046,23 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>137.712</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="C3" s="4">
+        <v>137.71199999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E3" s="7">
         <v>360</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>3775</v>
       </c>
       <c r="G3" s="1"/>
@@ -1635,47 +2080,47 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>145.91232</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="4">
+        <v>145.91231999999999</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.08</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>99</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>8444</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <f aca="false">F3/F2</f>
-        <v>0.250813899408677</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">C3/C2</f>
-        <v>0.414388181631727</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false">D2</f>
+      <c r="G4" s="5">
+        <f>F3/F2</f>
+        <v>0.25081389940867715</v>
+      </c>
+      <c r="H4" s="5">
+        <f>C3/C2</f>
+        <v>0.41438818163172747</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D2</f>
         <v>1.38</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">E2</f>
+      <c r="J4" s="1">
+        <f>E2</f>
         <v>140</v>
       </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">I4-D5</f>
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">E2-E4</f>
+      <c r="K4" s="1">
+        <f>I4-D5</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="L4" s="1">
+        <f>E2-E4</f>
         <v>41</v>
       </c>
       <c r="M4" s="1"/>
@@ -1687,23 +2132,23 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>82.16832</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="4">
+        <v>82.168319999999994</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.78</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>6584</v>
       </c>
       <c r="G5" s="1"/>
@@ -1712,48 +2157,48 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="5" t="n">
-        <v>0.2202747513027</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0.436865098163061</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <f aca="false">D4</f>
+      <c r="M5" s="5">
+        <v>0.22027475130269999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.43686509816306102</v>
+      </c>
+      <c r="O5" s="13">
+        <f>D4</f>
         <v>1.08</v>
       </c>
-      <c r="P5" s="13" t="n">
-        <f aca="false">E4</f>
+      <c r="P5" s="13">
+        <f>E4</f>
         <v>99</v>
       </c>
-      <c r="Q5" s="14" t="n">
-        <f aca="false">O5-D5</f>
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="13" t="n">
-        <f aca="false">E4-E5</f>
+      <c r="Q5" s="14">
+        <f>O5-D5</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R5" s="13">
+        <f>E4-E5</f>
         <v>82</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>120.2656</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6" s="4">
+        <v>120.26560000000001</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.91</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>138</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>8260</v>
       </c>
       <c r="G6" s="1"/>
@@ -1771,23 +2216,23 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>35.07776</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="4">
+        <v>35.077759999999998</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.46</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="8">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>4766</v>
       </c>
       <c r="G7" s="1"/>
@@ -1805,23 +2250,23 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>84.43904</v>
-      </c>
-      <c r="D8" s="9" t="n">
+      <c r="C8" s="11">
+        <v>84.439040000000006</v>
+      </c>
+      <c r="D8" s="9">
         <v>1.52</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>341</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>3472</v>
       </c>
       <c r="G8" s="9"/>
@@ -1836,46 +2281,46 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="12" t="n">
-        <v>0.420338983050847</v>
-      </c>
-      <c r="T8" s="12" t="n">
-        <v>0.702104674986031</v>
-      </c>
-      <c r="U8" s="9" t="n">
-        <f aca="false">D6</f>
+      <c r="S8" s="12">
+        <v>0.42033898305084699</v>
+      </c>
+      <c r="T8" s="12">
+        <v>0.70210467498603102</v>
+      </c>
+      <c r="U8" s="9">
+        <f>D6</f>
         <v>0.91</v>
       </c>
-      <c r="V8" s="9" t="n">
-        <f aca="false">E6</f>
+      <c r="V8" s="9">
+        <f>E6</f>
         <v>138</v>
       </c>
-      <c r="W8" s="9" t="n">
-        <f aca="false">D6-D7</f>
+      <c r="W8" s="9">
+        <f>D6-D7</f>
         <v>0.45</v>
       </c>
-      <c r="X8" s="9" t="n">
-        <f aca="false">E6-E7</f>
+      <c r="X8" s="9">
+        <f>E6-E7</f>
         <v>109</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>324.28512</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="4">
+        <v>324.28512000000001</v>
+      </c>
+      <c r="D9" s="1">
         <v>1.62</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>191</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>12511</v>
       </c>
       <c r="G9" s="1"/>
@@ -1893,23 +2338,23 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>130.75056</v>
-      </c>
-      <c r="D10" s="6" t="n">
+      <c r="C10" s="4">
+        <v>130.75056000000001</v>
+      </c>
+      <c r="D10" s="6">
         <v>2.61</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>393</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>3131</v>
       </c>
       <c r="G10" s="1"/>
@@ -1927,47 +2372,47 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>151.51648</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>1.34</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>7067</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <f aca="false">F10/F9</f>
-        <v>0.250259771401167</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">C10/C9</f>
-        <v>0.403196298368547</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false">D9</f>
+      <c r="G11" s="5">
+        <f>F10/F9</f>
+        <v>0.25025977140116695</v>
+      </c>
+      <c r="H11" s="5">
+        <f>C10/C9</f>
+        <v>0.40319629836854681</v>
+      </c>
+      <c r="I11" s="1">
+        <f>D9</f>
         <v>1.62</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <f aca="false">E9</f>
+      <c r="J11" s="1">
+        <f>E9</f>
         <v>191</v>
       </c>
-      <c r="K11" s="1" t="n">
-        <f aca="false">I11-D12</f>
-        <v>0.71</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <f aca="false">E9-E11</f>
+      <c r="K11" s="1">
+        <f>I11-D12</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="L11" s="1">
+        <f>E9-E11</f>
         <v>91</v>
       </c>
       <c r="M11" s="1"/>
@@ -1979,23 +2424,23 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>80.25472</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="4">
+        <v>80.254720000000006</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.91</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>5512</v>
       </c>
       <c r="G12" s="1"/>
@@ -2004,48 +2449,48 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>0.220036790717419</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>0.47032349220362</v>
-      </c>
-      <c r="O12" s="13" t="n">
-        <f aca="false">D11</f>
+      <c r="N12" s="5">
+        <v>0.47032349220362002</v>
+      </c>
+      <c r="O12" s="13">
+        <f>D11</f>
         <v>1.34</v>
       </c>
-      <c r="P12" s="13" t="n">
-        <f aca="false">E11</f>
+      <c r="P12" s="13">
+        <f>E11</f>
         <v>100</v>
       </c>
-      <c r="Q12" s="13" t="n">
-        <f aca="false">O12-D12</f>
-        <v>0.43</v>
-      </c>
-      <c r="R12" s="13" t="n">
-        <f aca="false">E11-E12</f>
+      <c r="Q12" s="13">
+        <f>O12-D12</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="R12" s="13">
+        <f>E11-E12</f>
         <v>62</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>123.54048</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E13" s="1">
         <v>214</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>6894</v>
       </c>
       <c r="G13" s="1"/>
@@ -2063,23 +2508,23 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>33.35488</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="4">
+        <v>33.354880000000001</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.52</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>4009</v>
       </c>
       <c r="G14" s="1"/>
@@ -2097,23 +2542,23 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="11" t="n">
-        <v>89.05792</v>
-      </c>
-      <c r="D15" s="9" t="n">
+      <c r="C15" s="11">
+        <v>89.057919999999996</v>
+      </c>
+      <c r="D15" s="9">
         <v>1.93</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>362</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="9">
         <v>2884</v>
       </c>
       <c r="G15" s="9"/>
@@ -2128,46 +2573,46 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="12" t="n">
-        <v>0.418334783870032</v>
-      </c>
-      <c r="T15" s="12" t="n">
-        <v>0.720880475776037</v>
-      </c>
-      <c r="U15" s="9" t="n">
-        <f aca="false">D13</f>
-        <v>1.12</v>
-      </c>
-      <c r="V15" s="9" t="n">
-        <f aca="false">E13</f>
+      <c r="S15" s="12">
+        <v>0.41833478387003198</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0.72088047577603698</v>
+      </c>
+      <c r="U15" s="9">
+        <f>D13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="V15" s="9">
+        <f>E13</f>
         <v>214</v>
       </c>
-      <c r="W15" s="15" t="n">
-        <f aca="false">D13-D14</f>
-        <v>0.6</v>
-      </c>
-      <c r="X15" s="9" t="n">
-        <f aca="false">E13-E14</f>
+      <c r="W15" s="15">
+        <f>D13-D14</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="X15" s="9">
+        <f>E13-E14</f>
         <v>176</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>285.48576</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16" s="4">
+        <v>285.48576000000003</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.98</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>165</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>18207</v>
       </c>
       <c r="G16" s="1"/>
@@ -2185,23 +2630,23 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>101.72576</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="4">
+        <v>101.72575999999999</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.39</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="7">
         <v>345</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1">
         <v>4574</v>
       </c>
       <c r="G17" s="1"/>
@@ -2219,47 +2664,47 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>136.9728</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="4">
+        <v>136.97280000000001</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.8</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>94</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>10701</v>
       </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">F17/F16</f>
-        <v>0.251222057450431</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">C17/C16</f>
-        <v>0.356325163118469</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false">D16</f>
+      <c r="G18" s="5">
+        <f>F17/F16</f>
+        <v>0.25122205745043114</v>
+      </c>
+      <c r="H18" s="5">
+        <f>C17/C16</f>
+        <v>0.35632516311846862</v>
+      </c>
+      <c r="I18" s="1">
+        <f>D16</f>
         <v>0.98</v>
       </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">E16</f>
+      <c r="J18" s="1">
+        <f>E16</f>
         <v>165</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <f aca="false">I18-D19</f>
+      <c r="K18" s="1">
+        <f>I18-D19</f>
         <v>0.38</v>
       </c>
-      <c r="L18" s="1" t="n">
-        <f aca="false">E16-E18</f>
+      <c r="L18" s="1">
+        <f>E16-E18</f>
         <v>71</v>
       </c>
       <c r="M18" s="1"/>
@@ -2271,23 +2716,23 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>80.16</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>0.6</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>48</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>8350</v>
       </c>
       <c r="G19" s="1"/>
@@ -2296,48 +2741,48 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="5" t="n">
-        <v>0.21969909354266</v>
-      </c>
-      <c r="N19" s="5" t="n">
+      <c r="M19" s="5">
+        <v>0.21969909354266001</v>
+      </c>
+      <c r="N19" s="5">
         <v>0.414774320156995</v>
       </c>
-      <c r="O19" s="13" t="n">
-        <f aca="false">D18</f>
+      <c r="O19" s="13">
+        <f>D18</f>
         <v>0.8</v>
       </c>
-      <c r="P19" s="13" t="n">
-        <f aca="false">E18</f>
+      <c r="P19" s="13">
+        <f>E18</f>
         <v>94</v>
       </c>
-      <c r="Q19" s="14" t="n">
-        <f aca="false">O19-D19</f>
-        <v>0.2</v>
-      </c>
-      <c r="R19" s="13" t="n">
-        <f aca="false">E18-E19</f>
+      <c r="Q19" s="14">
+        <f>O19-D19</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="R19" s="13">
+        <f>E18-E19</f>
         <v>46</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>106.82368</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>0.64</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>176</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>10432</v>
       </c>
       <c r="G20" s="1"/>
@@ -2355,23 +2800,23 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>40.24176</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="4">
+        <v>40.241759999999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>0.39</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>6449</v>
       </c>
       <c r="G21" s="1"/>
@@ -2389,23 +2834,23 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="11" t="n">
-        <v>62.68864</v>
-      </c>
-      <c r="D22" s="9" t="n">
+      <c r="C22" s="11">
+        <v>62.688639999999999</v>
+      </c>
+      <c r="D22" s="9">
         <v>0.98</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E22" s="10">
         <v>332</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="9">
         <v>3998</v>
       </c>
       <c r="G22" s="9"/>
@@ -2420,65 +2865,55 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="12" t="n">
-        <v>0.383243865030675</v>
-      </c>
-      <c r="T22" s="12" t="n">
+      <c r="S22" s="12">
+        <v>0.38324386503067498</v>
+      </c>
+      <c r="T22" s="12">
         <v>0.586842168328221</v>
       </c>
-      <c r="U22" s="9" t="n">
-        <f aca="false">D20</f>
+      <c r="U22" s="9">
+        <f>D20</f>
         <v>0.64</v>
       </c>
-      <c r="V22" s="9" t="n">
-        <f aca="false">E20</f>
+      <c r="V22" s="9">
+        <f>E20</f>
         <v>176</v>
       </c>
-      <c r="W22" s="9" t="n">
-        <f aca="false">D20-D21</f>
+      <c r="W22" s="9">
+        <f>D20-D21</f>
         <v>0.25</v>
       </c>
-      <c r="X22" s="9" t="n">
-        <f aca="false">E20-E21</f>
+      <c r="X22" s="9">
+        <f>E20-E21</f>
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.56"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="1020" max="1024" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>66</v>
       </c>
@@ -2537,184 +2972,184 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1.38</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>140</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>0.250813899408677</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.414388181631727</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="5">
+        <v>0.25081389940867699</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.41438818163172703</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.6</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>41</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>0.2202747513027</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>0.436865098163061</v>
-      </c>
-      <c r="J2" s="13" t="n">
+      <c r="H2" s="5">
+        <v>0.22027475130269999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.43686509816306102</v>
+      </c>
+      <c r="J2" s="13">
         <v>1.08</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="13">
         <v>99</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="14">
         <v>0.3</v>
       </c>
-      <c r="M2" s="13" t="n">
+      <c r="M2" s="13">
         <v>82</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>0.420338983050847</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <v>0.702104674986031</v>
-      </c>
-      <c r="P2" s="17" t="n">
+      <c r="N2" s="5">
+        <v>0.42033898305084699</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.70210467498603102</v>
+      </c>
+      <c r="P2" s="17">
         <v>0.91</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="17">
         <v>138</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="17">
         <v>0.45</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="17">
         <v>109</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1.62</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>191</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>0.250259771401167</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.403196298368547</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="D3" s="5">
+        <v>0.25025977140116701</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.40319629836854698</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.71</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>91</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>0.220036790717419</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>0.47032349220362</v>
-      </c>
-      <c r="J3" s="13" t="n">
+      <c r="I3" s="5">
+        <v>0.47032349220362002</v>
+      </c>
+      <c r="J3" s="13">
         <v>1.34</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="13">
         <v>100</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="13">
         <v>0.43</v>
       </c>
-      <c r="M3" s="13" t="n">
+      <c r="M3" s="13">
         <v>62</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>0.418334783870032</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>0.720880475776037</v>
-      </c>
-      <c r="P3" s="17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q3" s="17" t="n">
+      <c r="N3" s="5">
+        <v>0.41833478387003198</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.72088047577603698</v>
+      </c>
+      <c r="P3" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q3" s="17">
         <v>214</v>
       </c>
-      <c r="R3" s="18" t="n">
+      <c r="R3" s="18">
         <v>0.6</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="17">
         <v>176</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>0.98</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>165</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0.251222057450431</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0.356325163118469</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="5">
+        <v>0.25122205745043102</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.35632516311846901</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.38</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>71</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>0.21969909354266</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="5">
+        <v>0.21969909354266001</v>
+      </c>
+      <c r="I4" s="5">
         <v>0.414774320156995</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="13">
         <v>0.8</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="13">
         <v>94</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="14">
         <v>0.2</v>
       </c>
-      <c r="M4" s="13" t="n">
+      <c r="M4" s="13">
         <v>46</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>0.383243865030675</v>
-      </c>
-      <c r="O4" s="5" t="n">
+      <c r="N4" s="5">
+        <v>0.38324386503067498</v>
+      </c>
+      <c r="O4" s="5">
         <v>0.586842168328221</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="17">
         <v>0.64</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="17">
         <v>176</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="17">
         <v>0.25</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="17">
         <v>118</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2728,7 +3163,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -2740,7 +3175,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2754,7 +3189,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2768,7 +3203,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2778,7 +3213,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2786,7 +3221,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2800,7 +3235,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2814,7 +3249,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -2826,7 +3261,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2840,7 +3275,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2854,7 +3289,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2864,7 +3299,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2872,7 +3307,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2886,7 +3321,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2900,7 +3335,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -2913,34 +3348,30 @@
       <c r="M20" s="17"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.89"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -2957,589 +3388,199 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>1.38</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>25.0813899408677</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>41.4388181631728</v>
+      <c r="D2" s="4">
+        <v>25.081389940867702</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41.438818163172797</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>1.62</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>25.0259771401167</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>40.3196298368547</v>
+      <c r="D3" s="4">
+        <v>25.025977140116701</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40.319629836854702</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>0.98</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>25.1222057450431</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>35.6325163118469</v>
+      <c r="E4" s="4">
+        <v>35.632516311846899</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>1.08</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>22.02747513027</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>43.6865098163061</v>
+      <c r="D5" s="4">
+        <v>22.027475130269998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43.686509816306099</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>1.34</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>22.0036790717419</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>47.032349220362</v>
+      <c r="E6" s="4">
+        <v>47.032349220362001</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0.8</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>21.969909354266</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>41.4774320156995</v>
+      <c r="D7" s="4">
+        <v>21.969909354266001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41.477432015699499</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>0.91</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>42.0338983050847</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>70.2104674986031</v>
+      <c r="D8" s="4">
+        <v>42.033898305084698</v>
+      </c>
+      <c r="E8" s="4">
+        <v>70.210467498603094</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>41.8334783870032</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>72.0880475776037</v>
+      <c r="C9" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41.833478387003197</v>
+      </c>
+      <c r="E9" s="4">
+        <v>72.088047577603703</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>0.64</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>38.3243865030675</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>58.6842168328221</v>
+      <c r="D10" s="4">
+        <v>38.324386503067501</v>
+      </c>
+      <c r="E10" s="4">
+        <v>58.684216832822102</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="8.89"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">out!F2</f>
-        <v>140</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">out!F4</f>
-        <v>99</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">out!F3</f>
-        <v>360</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>25.0813899408677</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>41.4388181631728</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">out!F9</f>
-        <v>191</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">out!F11</f>
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">out!F10</f>
-        <v>393</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>25.0259771401167</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>40.3196298368547</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">out!F16</f>
-        <v>165</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">out!F18</f>
-        <v>94</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">out!F17</f>
-        <v>345</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>25.1222057450431</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>35.6325163118469</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">D2</f>
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">out!F5</f>
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">out!F6</f>
-        <v>138</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>22.02747513027</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>43.6865098163061</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">D3</f>
-        <v>100</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">out!F12</f>
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">out!F13</f>
-        <v>214</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.0036790717419</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>47.032349220362</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">D4</f>
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">out!F19</f>
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">out!F20</f>
-        <v>176</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>21.969909354266</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>41.4774320156995</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">E5</f>
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">out!F7</f>
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">out!F8</f>
-        <v>341</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>42.0338983050847</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>70.2104674986031</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">E6</f>
-        <v>214</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">out!F14</f>
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">out!F15</f>
-        <v>362</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>41.8334783870032</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>72.0880475776037</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">E7</f>
-        <v>176</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">out!F21</f>
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">out!F22</f>
-        <v>332</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>38.3243865030675</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>58.6842168328221</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C2:C4)</f>
-        <v>20.8219969156552</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D2:D4)</f>
-        <v>2.62466929133727</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E2:E4)</f>
-        <v>20.0499376557634</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F2:F4)</f>
-        <v>0.0394355349676207</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G2:G4)</f>
-        <v>2.5151707893145</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C5:C7)</f>
-        <v>2.62466929133727</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D5:D7)</f>
-        <v>12.9185482500507</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E5:E7)</f>
-        <v>31.0268700752536</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F5:F7)</f>
-        <v>0.0236184127485015</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G5:G7)</f>
-        <v>2.28355889877383</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C8:C10)</f>
-        <v>31.0268700752536</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D8:D10)</f>
-        <v>12.1197726417986</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E8:E10)</f>
-        <v>12.5698050899765</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F8:F10)</f>
-        <v>1.70340742835492</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G8:G10)</f>
-        <v>5.92586083758891</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="3" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="1" width="8.89"/>
+    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3561,394 +3602,837 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <f>out!F2</f>
+        <v>140</v>
+      </c>
+      <c r="D2" s="1">
+        <f>out!F4</f>
+        <v>99</v>
+      </c>
+      <c r="E2" s="1">
+        <f>out!F3</f>
+        <v>360</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.081389940867702</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41.438818163172797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <f>out!F9</f>
+        <v>191</v>
+      </c>
+      <c r="D3" s="1">
+        <f>out!F11</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <f>out!F10</f>
+        <v>393</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25.025977140116701</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40.319629836854702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <f>out!F16</f>
+        <v>165</v>
+      </c>
+      <c r="D4" s="1">
+        <f>out!F18</f>
+        <v>94</v>
+      </c>
+      <c r="E4" s="1">
+        <f>out!F17</f>
+        <v>345</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25.1222057450431</v>
+      </c>
+      <c r="G4" s="4">
+        <v>35.632516311846899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1">
+        <f>D2</f>
+        <v>99</v>
+      </c>
+      <c r="D5" s="1">
+        <f>out!F5</f>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <f>out!F6</f>
+        <v>138</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22.027475130269998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43.686509816306099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1">
+        <f>D3</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <f>out!F12</f>
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <f>out!F13</f>
+        <v>214</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22.0036790717419</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47.032349220362001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1">
+        <f>D4</f>
+        <v>94</v>
+      </c>
+      <c r="D7" s="1">
+        <f>out!F19</f>
+        <v>48</v>
+      </c>
+      <c r="E7" s="1">
+        <f>out!F20</f>
+        <v>176</v>
+      </c>
+      <c r="F7" s="4">
+        <v>21.969909354266001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41.477432015699499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1">
+        <f>E5</f>
+        <v>138</v>
+      </c>
+      <c r="D8" s="1">
+        <f>out!F7</f>
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <f>out!F8</f>
+        <v>341</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42.033898305084698</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1">
+        <f>E6</f>
+        <v>214</v>
+      </c>
+      <c r="D9" s="1">
+        <f>out!F14</f>
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
+        <f>out!F15</f>
+        <v>362</v>
+      </c>
+      <c r="F9" s="4">
+        <v>41.833478387003197</v>
+      </c>
+      <c r="G9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1">
+        <f>E7</f>
+        <v>176</v>
+      </c>
+      <c r="D10" s="1">
+        <f>out!F21</f>
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
+        <f>out!F22</f>
+        <v>332</v>
+      </c>
+      <c r="F10" s="4">
+        <v>38.324386503067501</v>
+      </c>
+      <c r="G10" s="4">
+        <v>58.684216832822102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4">
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>20.82199691565522</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.STDEV.P(D2:D4)</f>
+        <v>2.6246692913372702</v>
+      </c>
+      <c r="E11" s="4">
+        <f>_xlfn.STDEV.P(E2:E4)</f>
+        <v>20.049937655763422</v>
+      </c>
+      <c r="F11" s="4">
+        <f>_xlfn.STDEV.P(F2:F4)</f>
+        <v>3.943553496761161E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f>_xlfn.STDEV.P(G2:G4)</f>
+        <v>2.5151707893144999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4">
+        <f>_xlfn.STDEV.P(C5:C7)</f>
+        <v>2.6246692913372702</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.STDEV.P(D5:D7)</f>
+        <v>12.918548250050733</v>
+      </c>
+      <c r="E12" s="4">
+        <f>_xlfn.STDEV.P(E5:E7)</f>
+        <v>31.026870075253587</v>
+      </c>
+      <c r="F12" s="4">
+        <f>_xlfn.STDEV.P(F5:F7)</f>
+        <v>2.3618412748477768E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f>_xlfn.STDEV.P(G5:G7)</f>
+        <v>2.2835588987738102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4">
+        <f>_xlfn.STDEV.P(C8:C10)</f>
+        <v>31.026870075253587</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.P(D8:D10)</f>
+        <v>12.119772641798562</v>
+      </c>
+      <c r="E13" s="4">
+        <f>_xlfn.STDEV.P(E8:E10)</f>
+        <v>12.569805089976535</v>
+      </c>
+      <c r="F13" s="4">
+        <f>_xlfn.STDEV.P(F8:F10)</f>
+        <v>1.703407428354905</v>
+      </c>
+      <c r="G13" s="4">
+        <f>_xlfn.STDEV.P(G8:G10)</f>
+        <v>5.9258608375889077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1">
+        <f>C2</f>
+        <v>140</v>
+      </c>
+      <c r="D14" s="4">
+        <f>AVERAGE(D5,D8)</f>
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <f>AVERAGE(E2,E8)</f>
+        <v>350.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>32.018108912532774</v>
+      </c>
+      <c r="G14" s="4">
+        <v>59.400998287645145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:C16" si="0">C3</f>
+        <v>191</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="1">AVERAGE(D6,D9)</f>
+        <v>38</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E16" si="2">AVERAGE(E3,E9)</f>
+        <v>377.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>31.927264215838612</v>
+      </c>
+      <c r="G15" s="4">
+        <v>60.554081661965562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>338.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>31.426790956901112</v>
+      </c>
+      <c r="G16" s="4">
+        <v>51.300016366594406</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMJ18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="17.109375" style="1" customWidth="1"/>
+    <col min="19" max="1024" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H1" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <f aca="false">out!E2</f>
+      <c r="C2" s="1">
+        <f>out!E2</f>
         <v>1.38</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">out!E4</f>
+      <c r="D2" s="1">
+        <f>out!E4</f>
         <v>1.08</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">out!E3</f>
-        <v>2.28</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>25.0813899408677</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>41.4388181631728</v>
-      </c>
-      <c r="H2" s="0"/>
+      <c r="E2" s="1">
+        <f>out!E3</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.081389940867702</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41.438818163172797</v>
+      </c>
+      <c r="H2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <f aca="false">out!E9</f>
+      <c r="C3" s="1">
+        <f>out!E9</f>
         <v>1.62</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">out!E11</f>
+      <c r="D3" s="1">
+        <f>out!E11</f>
         <v>1.34</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">out!E10</f>
+      <c r="E3" s="1">
+        <f>out!E10</f>
         <v>2.61</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>25.0259771401167</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>40.3196298368547</v>
-      </c>
-      <c r="H3" s="0"/>
+      <c r="F3" s="4">
+        <v>25.025977140116701</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40.319629836854702</v>
+      </c>
+      <c r="H3"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <f aca="false">out!E16</f>
+      <c r="C4" s="1">
+        <f>out!E16</f>
         <v>0.98</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">out!E18</f>
+      <c r="D4" s="1">
+        <f>out!E18</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">out!E17</f>
+      <c r="E4" s="1">
+        <f>out!E17</f>
         <v>1.39</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>25.1222057450431</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>35.6325163118469</v>
-      </c>
-      <c r="H4" s="0"/>
+      <c r="G4" s="4">
+        <v>35.632516311846899</v>
+      </c>
+      <c r="H4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <f aca="false">D2</f>
+      <c r="C5" s="1">
+        <f>D2</f>
         <v>1.08</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">out!E5</f>
+      <c r="D5" s="1">
+        <f>out!E5</f>
         <v>0.78</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">out!E6</f>
+      <c r="E5" s="1">
+        <f>out!E6</f>
         <v>0.91</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>22.02747513027</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>43.6865098163061</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="F5" s="4">
+        <v>22.027475130269998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43.686509816306099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <f aca="false">D3</f>
+      <c r="C6" s="1">
+        <f>D3</f>
         <v>1.34</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">out!E12</f>
+      <c r="D6" s="1">
+        <f>out!E12</f>
         <v>0.91</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">out!E13</f>
-        <v>1.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="E6" s="1">
+        <f>out!E13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F6" s="4">
         <v>22.0036790717419</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>47.032349220362</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="G6" s="4">
+        <v>47.032349220362001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <f aca="false">D4</f>
+      <c r="C7" s="1">
+        <f>D4</f>
         <v>0.8</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">out!E19</f>
+      <c r="D7" s="1">
+        <f>out!E19</f>
         <v>0.6</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">out!E20</f>
+      <c r="E7" s="1">
+        <f>out!E20</f>
         <v>0.64</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>21.969909354266</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>41.4774320156995</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="F7" s="4">
+        <v>21.969909354266001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41.477432015699499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">E5</f>
+      <c r="C8" s="1">
+        <f>E5</f>
         <v>0.91</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">out!E7</f>
+      <c r="D8" s="1">
+        <f>out!E7</f>
         <v>0.46</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">out!E8</f>
+      <c r="E8" s="1">
+        <f>out!E8</f>
         <v>1.52</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>42.0338983050847</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>70.2104674986031</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="F8" s="4">
+        <v>42.033898305084698</v>
+      </c>
+      <c r="G8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">E6</f>
-        <v>1.12</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">out!E14</f>
+      <c r="C9" s="1">
+        <f>E6</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <f>out!E14</f>
         <v>0.52</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">out!E15</f>
+      <c r="E9" s="1">
+        <f>out!E15</f>
         <v>1.93</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>41.8334783870032</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>72.0880475776037</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="F9" s="4">
+        <v>41.833478387003197</v>
+      </c>
+      <c r="G9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">E7</f>
+      <c r="C10" s="1">
+        <f>E7</f>
         <v>0.64</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">out!E21</f>
+      <c r="D10" s="1">
+        <f>out!E21</f>
         <v>0.39</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">out!E22</f>
+      <c r="E10" s="1">
+        <f>out!E22</f>
         <v>0.98</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>38.3243865030675</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>58.6842168328221</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="4">
+        <v>38.324386503067501</v>
+      </c>
+      <c r="G10" s="4">
+        <v>58.684216832822102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C2:C4)</f>
-        <v>0.263986531642978</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D2:D4)</f>
-        <v>0.220504472113884</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E2:E4)</f>
-        <v>0.515256139108394</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F2:F4)</f>
-        <v>0.0394355349676207</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G2:G4)</f>
-        <v>2.5151707893145</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4">
+        <f>_xlfn.STDEV.P(C2:C4)</f>
+        <v>0.26398653164297781</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.STDEV.P(D2:D4)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="E11" s="4">
+        <f>_xlfn.STDEV.P(E2:E4)</f>
+        <v>0.51525613910839441</v>
+      </c>
+      <c r="F11" s="4">
+        <f>_xlfn.STDEV.P(F2:F4)</f>
+        <v>3.943553496761161E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <f>_xlfn.STDEV.P(G2:G4)</f>
+        <v>2.5151707893144999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C5:C7)</f>
-        <v>0.220504472113884</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D5:D7)</f>
-        <v>0.127104506432917</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E5:E7)</f>
-        <v>0.196468827043885</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F5:F7)</f>
-        <v>0.0236184127485015</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G5:G7)</f>
-        <v>2.28355889877383</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4">
+        <f>_xlfn.STDEV.P(C5:C7)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.STDEV.P(D5:D7)</f>
+        <v>0.12710450643291726</v>
+      </c>
+      <c r="E12" s="4">
+        <f>_xlfn.STDEV.P(E5:E7)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="F12" s="4">
+        <f>_xlfn.STDEV.P(F5:F7)</f>
+        <v>2.3618412748477768E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <f>_xlfn.STDEV.P(G5:G7)</f>
+        <v>2.2835588987738102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(C8:C10)</f>
-        <v>0.196468827043885</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(D8:D10)</f>
-        <v>0.0531245915016975</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(E8:E10)</f>
-        <v>0.389044413345772</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(F8:F10)</f>
-        <v>1.70340742835492</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">_xlfn.STDEV.P(G8:G10)</f>
-        <v>5.92586083758891</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="C13" s="4">
+        <f>_xlfn.STDEV.P(C8:C10)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.P(D8:D10)</f>
+        <v>5.3124591501697516E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f>_xlfn.STDEV.P(E8:E10)</f>
+        <v>0.38904441334577178</v>
+      </c>
+      <c r="F13" s="4">
+        <f>_xlfn.STDEV.P(F8:F10)</f>
+        <v>1.703407428354905</v>
+      </c>
+      <c r="G13" s="4">
+        <f>_xlfn.STDEV.P(G8:G10)</f>
+        <v>5.9258608375889077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <f aca="false">C2</f>
+      <c r="C14" s="1">
+        <f>C2</f>
         <v>1.38</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="G14" s="4" t="n">
-        <v>59.4009982876451</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="G14" s="4">
+        <v>59.400998287645102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <f aca="false">C3</f>
+      <c r="C15" s="1">
+        <f>C3</f>
         <v>1.62</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="G15" s="4" t="n">
-        <v>60.5540816619656</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="G15" s="4">
+        <v>60.554081661965597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <f aca="false">C4</f>
+      <c r="C16" s="1">
+        <f>C4</f>
         <v>0.98</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>51.3000163665944</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="4">
+        <v>51.300016366594399</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD9A391-8CC3-42ED-8480-8C3224CFB2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB55B3-1FAA-4772-A95F-AA598E0968C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +506,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,21 +900,21 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
-    <col min="10" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="9.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>0.58377811736392571</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1129,7 +1132,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1162,7 +1165,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1195,7 +1198,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>0.70210467498603091</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>0.58628193198216028</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1325,7 +1328,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1358,7 +1361,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1466,7 +1469,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>0.72088047577603709</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>0.50271574549521014</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1629,7 +1632,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1671,7 +1674,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1737,7 +1740,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1778,19 +1781,19 @@
         <v>0.58684216832822089</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J24" s="20">
         <f>J2*3</f>
         <v>996.9782399999998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J25" s="20">
         <f>J9*3</f>
         <v>972.85536000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J26" s="20">
         <f>J16*3</f>
         <v>856.45728000000008</v>
@@ -1810,18 +1813,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
         <v>89</v>
@@ -1835,7 +1838,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>66</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1932,13 +1935,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2185,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2219,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2253,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2427,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2477,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2545,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2630,7 +2633,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2667,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2716,7 +2719,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2766,7 +2769,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2800,7 +2803,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -2900,20 +2903,20 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" customWidth="1"/>
-    <col min="18" max="18" width="9.77734375" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" customWidth="1"/>
-    <col min="1020" max="1024" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="1020" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>66</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3163,7 +3166,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3175,7 +3178,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3189,7 +3192,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3203,7 +3206,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3213,7 +3216,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3221,7 +3224,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3235,7 +3238,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3249,7 +3252,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3261,7 +3264,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3275,7 +3278,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3289,7 +3292,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3299,7 +3302,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3307,7 +3310,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3321,7 +3324,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3335,7 +3338,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3365,13 +3368,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3407,7 +3410,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3426,7 +3429,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3445,7 +3448,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3464,7 +3467,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3483,7 +3486,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3502,7 +3505,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3521,7 +3524,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3543,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3569,18 +3572,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="1024" width="8.88671875" style="1"/>
+    <col min="1" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3603,7 +3606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>41.438818163172797</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>40.319629836854702</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>35.632516311846899</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>43.686509816306099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>47.032349220362001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>41.477432015699499</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>70.210467498603094</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>72.088047577603703</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3837,7 +3840,7 @@
         <v>58.684216832822102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>2.5151707893144999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>2.2835588987738102</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>5.9258608375889077</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>59.400998287645145</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>60.554081661965562</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -3999,10 +4002,10 @@
         <v>51.300016366594406</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -4015,20 +4018,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="17.109375" style="1" customWidth="1"/>
-    <col min="19" max="1024" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
+    <col min="19" max="1024" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4082,7 +4085,7 @@
       <c r="H2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="H3"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4138,7 +4141,7 @@
       <c r="H4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>43.686509816306099</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>47.032349220362001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>41.477432015699499</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>70.210467498603094</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>72.088047577603703</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>58.684216832822102</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>2.5151707893144999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>2.2835588987738102</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>5.9258608375889077</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4389,12 +4392,19 @@
         <f>C2</f>
         <v>1.38</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <f>AVERAGE(D5,D8)</f>
+        <v>0.62</v>
+      </c>
+      <c r="E14" s="27">
+        <f>AVERAGE(E2,E8)</f>
+        <v>1.9</v>
+      </c>
       <c r="G14" s="4">
         <v>59.400998287645102</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -4405,12 +4415,19 @@
         <f>C3</f>
         <v>1.62</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D16" si="0">AVERAGE(D6,D9)</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ref="E15:E16" si="1">AVERAGE(E3,E9)</f>
+        <v>2.27</v>
+      </c>
       <c r="G15" s="4">
         <v>60.554081661965597</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -4421,14 +4438,22 @@
         <f>C4</f>
         <v>0.98</v>
       </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1850000000000001</v>
+      </c>
       <c r="G16" s="4">
         <v>51.300016366594399</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe\Projects\screen-audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB55B3-1FAA-4772-A95F-AA598E0968C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606C53-6FA7-40C0-B3F8-FE269344121C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="94">
   <si>
     <t>trial</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>FPS</t>
   </si>
 </sst>
 </file>
@@ -505,10 +502,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,24 +894,24 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="9.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -970,7 +967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>0.58377811736392571</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1054,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1090,7 +1087,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1132,7 +1129,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1165,7 +1162,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1198,7 +1195,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0.70210467498603091</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>0.58628193198216028</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1328,7 +1325,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1361,7 +1358,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1403,7 +1400,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1436,7 +1433,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1469,7 +1466,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1513,7 +1510,7 @@
         <v>0.72088047577603709</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>0.50271574549521014</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1599,7 +1596,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1632,7 +1629,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1674,7 +1671,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1707,7 +1704,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1740,7 +1737,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1781,19 +1778,19 @@
         <v>0.58684216832822089</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J24" s="20">
         <f>J2*3</f>
         <v>996.9782399999998</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J25" s="20">
         <f>J9*3</f>
         <v>972.85536000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J26" s="20">
         <f>J16*3</f>
         <v>856.45728000000008</v>
@@ -1813,18 +1810,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
         <v>89</v>
@@ -1832,13 +1829,13 @@
       <c r="D2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>66</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1935,13 +1932,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2015,7 +2012,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2046,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2080,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2135,7 +2132,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -2185,7 +2182,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2219,7 +2216,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2253,7 +2250,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2338,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2372,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2424,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2477,7 +2474,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2511,7 +2508,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2542,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>44</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2630,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2664,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2719,7 +2716,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -2769,7 +2766,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2803,7 +2800,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2837,7 +2834,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -2903,20 +2900,20 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="1"/>
-    <col min="1020" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" customWidth="1"/>
+    <col min="1020" max="1024" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>66</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3093,7 +3090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3152,7 +3149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3166,7 +3163,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3178,7 +3175,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3192,7 +3189,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3206,7 +3203,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3216,7 +3213,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3224,7 +3221,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3238,7 +3235,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3252,7 +3249,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3264,7 +3261,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3278,7 +3275,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3292,7 +3289,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3302,7 +3299,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3310,7 +3307,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3324,7 +3321,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3338,7 +3335,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3368,13 +3365,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3391,7 +3388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3410,7 +3407,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3429,7 +3426,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3448,7 +3445,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3467,7 +3464,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3486,7 +3483,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3505,7 +3502,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3524,7 +3521,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3543,7 +3540,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3573,17 +3570,19 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.85546875" style="1"/>
-    <col min="6" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="1024" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>41.438818163172797</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>40.319629836854702</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>35.632516311846899</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>43.686509816306099</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>47.032349220362001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>41.477432015699499</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>70.210467498603094</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>72.088047577603703</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>58.684216832822102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>2.5151707893144999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>2.2835588987738102</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -3924,12 +3923,12 @@
         <v>5.9258608375889077</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1">
         <f>C2</f>
@@ -3950,12 +3949,12 @@
         <v>59.400998287645145</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C16" si="0">C3</f>
@@ -3976,12 +3975,12 @@
         <v>60.554081661965562</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -4002,10 +4001,10 @@
         <v>51.300016366594406</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
     </row>
   </sheetData>
@@ -4019,19 +4018,19 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
-    <col min="19" max="1024" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="17.109375" style="1" customWidth="1"/>
+    <col min="19" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4085,7 +4084,7 @@
       <c r="H2"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="H3"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4141,7 +4140,7 @@
       <c r="H4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>43.686509816306099</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>47.032349220362001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>41.477432015699499</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>70.210467498603094</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>72.088047577603703</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v>58.684216832822102</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>2.5151707893144999</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>2.2835588987738102</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>5.9258608375889077</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4396,7 +4395,7 @@
         <f>AVERAGE(D5,D8)</f>
         <v>0.62</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <f>AVERAGE(E2,E8)</f>
         <v>1.9</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>59.400998287645102</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -4419,7 +4418,7 @@
         <f t="shared" ref="D15:D16" si="0">AVERAGE(D6,D9)</f>
         <v>0.71500000000000008</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <f t="shared" ref="E15:E16" si="1">AVERAGE(E3,E9)</f>
         <v>2.27</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>60.554081661965597</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -4442,7 +4441,7 @@
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" si="1"/>
         <v>1.1850000000000001</v>
       </c>
@@ -4450,10 +4449,10 @@
         <v>51.300016366594399</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
     </row>
   </sheetData>

--- a/out.xlsx
+++ b/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606C53-6FA7-40C0-B3F8-FE269344121C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8041E-B530-435B-BD3F-4B131BC6C63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="FAR-rrm" sheetId="4" r:id="rId5"/>
     <sheet name="FAR-csf" sheetId="5" r:id="rId6"/>
     <sheet name="FAR-con" sheetId="6" r:id="rId7"/>
+    <sheet name="FPI" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="94">
   <si>
     <t>trial</t>
   </si>
@@ -302,9 +303,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Rrmt</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
@@ -321,6 +319,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>CSFdrop</t>
   </si>
 </sst>
 </file>
@@ -425,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,9 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -894,7 +892,7 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,19 +1777,19 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="20">
+      <c r="J24" s="19">
         <f>J2*3</f>
         <v>996.9782399999998</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <f>J9*3</f>
         <v>972.85536000000002</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <f>J16*3</f>
         <v>856.45728000000008</v>
       </c>
@@ -1822,36 +1820,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1859,19 +1857,19 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>996.9782399999998</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>1.3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>25</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>22</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>42</v>
       </c>
     </row>
@@ -1879,19 +1877,19 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>972.85536000000002</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>1.55</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>25</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>22</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>42</v>
       </c>
     </row>
@@ -1899,19 +1897,19 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>856.45728000000008</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>25</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>22</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>38</v>
       </c>
     </row>
@@ -3569,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3582,7 +3580,7 @@
     <col min="8" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -3604,8 +3602,11 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3630,8 +3631,12 @@
       <c r="G2" s="4">
         <v>41.438818163172797</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="19">
+        <f t="shared" ref="H2:H13" si="0">C2-D2</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3656,8 +3661,12 @@
       <c r="G3" s="4">
         <v>40.319629836854702</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="19">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3682,8 +3691,12 @@
       <c r="G4" s="4">
         <v>35.632516311846899</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="19">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3708,8 +3721,12 @@
       <c r="G5" s="4">
         <v>43.686509816306099</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3734,8 +3751,12 @@
       <c r="G6" s="4">
         <v>47.032349220362001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="19">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3760,8 +3781,12 @@
       <c r="G7" s="4">
         <v>41.477432015699499</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3786,8 +3811,12 @@
       <c r="G8" s="4">
         <v>70.210467498603094</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="19">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3812,8 +3841,12 @@
       <c r="G9" s="4">
         <v>72.088047577603703</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3838,8 +3871,12 @@
       <c r="G10" s="4">
         <v>58.684216832822102</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -3866,8 +3903,12 @@
         <f>_xlfn.STDEV.P(G2:G4)</f>
         <v>2.5151707893144999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>18.19732762431795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
@@ -3894,8 +3935,12 @@
         <f>_xlfn.STDEV.P(G5:G7)</f>
         <v>2.2835588987738102</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>-10.293878958713464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -3922,13 +3967,17 @@
         <f>_xlfn.STDEV.P(G8:G10)</f>
         <v>5.9258608375889077</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>18.907097433455025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <f>C2</f>
@@ -3948,24 +3997,28 @@
       <c r="G14" s="4">
         <v>59.400998287645145</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="19">
+        <f>C14-D14</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C16" si="0">C3</f>
+        <f t="shared" ref="C15:C16" si="1">C3</f>
         <v>191</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:D16" si="1">AVERAGE(D6,D9)</f>
+        <f t="shared" ref="D15:D16" si="2">AVERAGE(D6,D9)</f>
         <v>38</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E16" si="2">AVERAGE(E3,E9)</f>
+        <f t="shared" ref="E15:E16" si="3">AVERAGE(E3,E9)</f>
         <v>377.5</v>
       </c>
       <c r="F15" s="4">
@@ -3974,24 +4027,28 @@
       <c r="G15" s="4">
         <v>60.554081661965562</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="19">
+        <f t="shared" ref="H15:H16" si="4">C15-D15</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>338.5</v>
       </c>
       <c r="F16" s="4">
@@ -4000,6 +4057,10 @@
       <c r="G16" s="4">
         <v>51.300016366594406</v>
       </c>
+      <c r="H16" s="19">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
@@ -4009,7 +4070,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4017,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,8 +4113,8 @@
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>87</v>
+      <c r="H1" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -4081,7 +4142,9 @@
       <c r="G2" s="4">
         <v>41.438818163172797</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" s="19">
+        <v>41</v>
+      </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -4109,7 +4172,9 @@
       <c r="G3" s="4">
         <v>40.319629836854702</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" s="19">
+        <v>91</v>
+      </c>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -4137,7 +4202,9 @@
       <c r="G4" s="4">
         <v>35.632516311846899</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="19">
+        <v>71</v>
+      </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -4165,6 +4232,9 @@
       <c r="G5" s="4">
         <v>43.686509816306099</v>
       </c>
+      <c r="H5" s="19">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -4191,6 +4261,9 @@
       <c r="G6" s="4">
         <v>47.032349220362001</v>
       </c>
+      <c r="H6" s="19">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -4217,6 +4290,9 @@
       <c r="G7" s="4">
         <v>41.477432015699499</v>
       </c>
+      <c r="H7" s="19">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -4243,6 +4319,9 @@
       <c r="G8" s="4">
         <v>70.210467498603094</v>
       </c>
+      <c r="H8" s="19">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -4269,6 +4348,9 @@
       <c r="G9" s="4">
         <v>72.088047577603703</v>
       </c>
+      <c r="H9" s="19">
+        <v>176</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4295,6 +4377,9 @@
       <c r="G10" s="4">
         <v>58.684216832822102</v>
       </c>
+      <c r="H10" s="19">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -4323,6 +4408,9 @@
         <f>_xlfn.STDEV.P(G2:G4)</f>
         <v>2.5151707893144999</v>
       </c>
+      <c r="H11" s="19">
+        <v>18.19732762431795</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -4351,6 +4439,9 @@
         <f>_xlfn.STDEV.P(G5:G7)</f>
         <v>2.2835588987738102</v>
       </c>
+      <c r="H12" s="19">
+        <v>-10.293878958713464</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -4379,13 +4470,16 @@
         <f>_xlfn.STDEV.P(G8:G10)</f>
         <v>5.9258608375889077</v>
       </c>
+      <c r="H13" s="19">
+        <v>18.907097433455025</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <f>C2</f>
@@ -4395,12 +4489,15 @@
         <f>AVERAGE(D5,D8)</f>
         <v>0.62</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <f>AVERAGE(E2,E8)</f>
         <v>1.9</v>
       </c>
       <c r="G14" s="4">
         <v>59.400998287645102</v>
+      </c>
+      <c r="H14" s="19">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4408,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1">
         <f>C3</f>
@@ -4418,12 +4515,15 @@
         <f t="shared" ref="D15:D16" si="0">AVERAGE(D6,D9)</f>
         <v>0.71500000000000008</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f t="shared" ref="E15:E16" si="1">AVERAGE(E3,E9)</f>
         <v>2.27</v>
       </c>
       <c r="G15" s="4">
         <v>60.554081661965597</v>
+      </c>
+      <c r="H15" s="19">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4431,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1">
         <f>C4</f>
@@ -4441,12 +4541,15 @@
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <f t="shared" si="1"/>
         <v>1.1850000000000001</v>
       </c>
       <c r="G16" s="4">
         <v>51.300016366594399</v>
+      </c>
+      <c r="H16" s="19">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
@@ -4459,4 +4562,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F48122-4A28-482A-9135-507475642A28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8041E-B530-435B-BD3F-4B131BC6C63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C50109-7405-416F-B382-3F677097DB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="FAR-con" sheetId="6" r:id="rId7"/>
     <sheet name="FPI" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
   <si>
     <t>trial</t>
   </si>
@@ -328,11 +328,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,6 +361,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -426,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +511,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,62 +1757,436 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <v>0.98</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="10">
         <v>332</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="9">
         <v>3998</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="11">
         <v>62.688639999999999</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="O22" s="5">
+      <c r="K22" s="11"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="12">
         <f>G22/G20</f>
         <v>0.38324386503067487</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="12">
         <f>J22/J20</f>
         <v>0.58684216832822089</v>
       </c>
     </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>_xlfn.CONCAT(C23,B23)</f>
+        <v>A4</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1.24</v>
+      </c>
+      <c r="F23" s="28">
+        <v>196</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="19">
-        <f>J2*3</f>
-        <v>996.9782399999998</v>
-      </c>
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" ref="D24:D36" si="0">_xlfn.CONCAT(C24,B24)</f>
+        <v>B4</v>
+      </c>
+      <c r="E24" s="27">
+        <v>2.04</v>
+      </c>
+      <c r="F24" s="28">
+        <v>347</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="19">
-        <f>J9*3</f>
-        <v>972.85536000000002</v>
-      </c>
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1.01</v>
+      </c>
+      <c r="F25" s="28">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="19">
-        <f>J16*3</f>
-        <v>856.45728000000008</v>
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F26" s="28">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F27" s="28">
+        <v>184</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F28" s="28">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>G4</v>
+      </c>
+      <c r="E29" s="30">
+        <v>1.36</v>
+      </c>
+      <c r="F29" s="31">
+        <v>320</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="E30" s="27">
+        <v>1.04</v>
+      </c>
+      <c r="F30" s="28">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B5</v>
+      </c>
+      <c r="E31" s="27">
+        <v>1.76</v>
+      </c>
+      <c r="F31" s="28">
+        <v>359</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C5</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F32" s="28">
+        <v>95</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>D5</v>
+      </c>
+      <c r="E33" s="29">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F33" s="28">
+        <v>48</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>E5</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="F34" s="28">
+        <v>190</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>F5</v>
+      </c>
+      <c r="E35" s="29">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F35" s="28">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>G5</v>
+      </c>
+      <c r="E36" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="F36" s="28">
+        <v>330</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3567,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/out.xlsx
+++ b/out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uphjan2\Projects\screen-audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C50109-7405-416F-B382-3F677097DB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE120A-97A2-4197-90D6-4E5656F072B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="FAR-rrm" sheetId="4" r:id="rId5"/>
     <sheet name="FAR-csf" sheetId="5" r:id="rId6"/>
     <sheet name="FAR-con" sheetId="6" r:id="rId7"/>
-    <sheet name="FPI" sheetId="8" r:id="rId8"/>
+    <sheet name="FAR-con2" sheetId="9" r:id="rId8"/>
+    <sheet name="FPI" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="96">
   <si>
     <t>trial</t>
   </si>
@@ -322,6 +323,12 @@
   </si>
   <si>
     <t>CSFdrop</t>
+  </si>
+  <si>
+    <t>Screen2</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -432,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,9 +516,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +530,38 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -912,8 +948,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,6 +1099,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="4">
+        <f>E3*G3/62.5</f>
         <v>137.71199999999999</v>
       </c>
       <c r="K3" s="5">
@@ -1102,6 +1141,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="4">
+        <f t="shared" ref="J4:J8" si="0">E4*G4/62.5</f>
         <v>145.91231999999999</v>
       </c>
       <c r="K4" s="4"/>
@@ -1135,7 +1175,8 @@
         <v>33</v>
       </c>
       <c r="J5" s="4">
-        <v>82.168319999999994</v>
+        <f t="shared" si="0"/>
+        <v>82.168320000000008</v>
       </c>
       <c r="K5" s="4"/>
       <c r="M5" s="5">
@@ -1144,7 +1185,7 @@
       </c>
       <c r="N5" s="5">
         <f>(J4-J5)/J4</f>
-        <v>0.43686509816306124</v>
+        <v>0.43686509816306113</v>
       </c>
       <c r="O5" s="5"/>
     </row>
@@ -1177,6 +1218,7 @@
         <v>37</v>
       </c>
       <c r="J6" s="4">
+        <f t="shared" si="0"/>
         <v>120.26560000000001</v>
       </c>
       <c r="K6" s="4"/>
@@ -1210,7 +1252,8 @@
         <v>41</v>
       </c>
       <c r="J7" s="4">
-        <v>35.077759999999998</v>
+        <f t="shared" si="0"/>
+        <v>35.077760000000005</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -1243,6 +1286,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="11">
+        <f t="shared" si="0"/>
         <v>84.439040000000006</v>
       </c>
       <c r="K8" s="11"/>
@@ -1574,7 +1618,7 @@
         <v>0.50271574549521014</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1615,7 +1659,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1648,7 +1692,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1690,7 +1734,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1723,7 +1767,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1756,7 +1800,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1800,7 +1844,7 @@
         <v>0.58684216832822089</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1814,11 +1858,14 @@
         <f>_xlfn.CONCAT(C23,B23)</f>
         <v>A4</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>1.24</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>196</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16476.587011718751</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>20</v>
@@ -1826,8 +1873,25 @@
       <c r="I23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J23" s="4">
+        <f>E23*G23/62.5</f>
+        <v>326.89548631250005</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="R23" s="4">
+        <f>J23*3</f>
+        <v>980.68645893750022</v>
+      </c>
+      <c r="S23" s="4">
+        <f>J24*3 + J29*2</f>
+        <v>536.47147456250002</v>
+      </c>
+      <c r="T23" s="5">
+        <f>S23/R23</f>
+        <v>0.54703669014021705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1838,14 +1902,17 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" ref="D24:D36" si="0">_xlfn.CONCAT(C24,B24)</f>
+        <f t="shared" ref="D24:D36" si="1">_xlfn.CONCAT(C24,B24)</f>
         <v>B4</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>2.04</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>347</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3958.6252929687498</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>24</v>
@@ -1853,9 +1920,21 @@
       <c r="I24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J24" s="4">
+        <f>E24*G24/62.5</f>
+        <v>129.20952956249999</v>
+      </c>
+      <c r="K24" s="5">
+        <f>G24/G23</f>
+        <v>0.240257602509138</v>
+      </c>
+      <c r="L24" s="5">
+        <f>J24/J23</f>
+        <v>0.39526250735374313</v>
+      </c>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1866,14 +1945,17 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C4</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>1.01</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>90</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9649.0945556640636</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>28</v>
@@ -1881,9 +1963,13 @@
       <c r="I25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <f t="shared" ref="J25:J29" si="2">E25*G25/62.5</f>
+        <v>155.92936801953127</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1894,14 +1980,17 @@
         <v>30</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D4</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <v>0.71899999999999997</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>41</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7715.1844726562504</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -1909,9 +1998,22 @@
       <c r="I26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J26" s="4">
+        <f t="shared" si="2"/>
+        <v>88.7554821734375</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="M26" s="5">
+        <f>(G25-G26)/G25</f>
+        <v>0.20042399541753883</v>
+      </c>
+      <c r="N26" s="5">
+        <f>(J25-J26)/J25</f>
+        <v>0.43079688386654502</v>
+      </c>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1922,14 +2024,17 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E4</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>0.82399999999999995</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>184</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8525.7999999999993</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>36</v>
@@ -1937,8 +2042,13 @@
       <c r="I27" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>112.40414719999998</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1949,14 +2059,17 @@
         <v>38</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F4</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>46</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5119.9598632812504</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
@@ -1964,8 +2077,13 @@
       <c r="I28" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>36.454114226562503</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1976,31 +2094,42 @@
         <v>42</v>
       </c>
       <c r="D29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>G4</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>1.36</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="30">
         <v>320</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9">
+        <v>3420.1030761718748</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="11">
+        <f t="shared" si="2"/>
+        <v>74.421442937500004</v>
+      </c>
+      <c r="K29" s="11"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="12">
+        <f>G29/G27</f>
+        <v>0.40114746723731204</v>
+      </c>
+      <c r="P29" s="12">
+        <f>J29/J27</f>
+        <v>0.66208805272177729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2011,14 +2140,17 @@
         <v>18</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A5</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <v>1.04</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>166</v>
+      </c>
+      <c r="G30" s="36">
+        <v>17108.699121093749</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>20</v>
@@ -2026,8 +2158,25 @@
       <c r="I30" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J30" s="4">
+        <f>E30*G30/62.5</f>
+        <v>284.68875337499998</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="R30" s="4">
+        <f>J30*3</f>
+        <v>854.06626012499987</v>
+      </c>
+      <c r="S30" s="4">
+        <f>J31*3 + J36*2</f>
+        <v>480.74249803124997</v>
+      </c>
+      <c r="T30" s="5">
+        <f>S30/R30</f>
+        <v>0.56288665233173973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2038,14 +2187,17 @@
         <v>22</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>B5</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>1.76</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>359</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4102.4063476562496</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>24</v>
@@ -2053,8 +2205,21 @@
       <c r="I31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J31" s="4">
+        <f>E31*G31/62.5</f>
+        <v>115.52376274999999</v>
+      </c>
+      <c r="K31" s="5">
+        <f>G31/G30</f>
+        <v>0.23978482049510644</v>
+      </c>
+      <c r="L31" s="5">
+        <f>J31/J30</f>
+        <v>0.40578969622248778</v>
+      </c>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2065,14 +2230,17 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>C5</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <v>0.91800000000000004</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>95</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9296.0865478515625</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>28</v>
@@ -2080,8 +2248,13 @@
       <c r="I32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="4">
+        <f t="shared" ref="J32:J36" si="3">E32*G32/62.5</f>
+        <v>136.54091921484374</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2092,14 +2265,17 @@
         <v>30</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>D5</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>0.71499999999999997</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>48</v>
+      </c>
+      <c r="G33" s="1">
+        <v>7447.2508789062504</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>32</v>
@@ -2107,8 +2283,22 @@
       <c r="I33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>85.196550054687492</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="M33" s="5">
+        <f>(G32-G33)/G32</f>
+        <v>0.19888322461591112</v>
+      </c>
+      <c r="N33" s="5">
+        <f>(J32-J33)/J32</f>
+        <v>0.37603649847535564</v>
+      </c>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2119,14 +2309,17 @@
         <v>34</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E5</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>0.79300000000000004</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>190</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8289.4</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>36</v>
@@ -2134,8 +2327,13 @@
       <c r="I34" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="4">
+        <f t="shared" si="3"/>
+        <v>105.1759072</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2146,14 +2344,17 @@
         <v>38</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>F5</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <v>0.44700000000000001</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>52</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4973.94677734375</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>40</v>
@@ -2161,8 +2362,13 @@
       <c r="I35" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="4">
+        <f t="shared" si="3"/>
+        <v>35.573667351562499</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2173,20 +2379,39 @@
         <v>42</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>G5</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <v>1.27</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>330</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3301.4569335937499</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="3"/>
+        <v>67.085604890624992</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="12">
+        <f>G36/G34</f>
+        <v>0.39827453538178276</v>
+      </c>
+      <c r="P36" s="12">
+        <f>J36/J34</f>
+        <v>0.6378419419102952</v>
       </c>
     </row>
   </sheetData>
@@ -2197,120 +2422,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2F88A-A2D5-4C5A-A713-359268450BDA}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="40">
+        <v>44230</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="19">
+      <c r="D4" s="19">
         <v>996.9782399999998</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="23">
         <v>1.3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="F4" s="22">
         <v>25</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G4" s="22">
         <v>22</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4" s="22">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
+      <c r="I4" s="22"/>
+      <c r="J4" s="19">
+        <f>'FAR-csf'!F14</f>
+        <v>32.018108912532774</v>
+      </c>
+      <c r="K4" s="19">
+        <f>'FAR-csf'!G14</f>
+        <v>59.400998287645145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="40">
+        <v>44230</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="D5" s="19">
         <v>972.85536000000002</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="23">
         <v>1.55</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F5" s="22">
         <v>25</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <v>22</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="22">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
+      <c r="I5" s="22"/>
+      <c r="J5" s="19">
+        <f>'FAR-csf'!F15</f>
+        <v>31.927264215838612</v>
+      </c>
+      <c r="K5" s="19">
+        <f>'FAR-csf'!G15</f>
+        <v>60.554081661965562</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>44230</v>
+      </c>
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="D6" s="33">
         <v>856.45728000000008</v>
       </c>
-      <c r="D6" s="23">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F6" s="35">
         <v>25</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="35">
         <v>22</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="35">
         <v>38</v>
       </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33">
+        <f>'FAR-csf'!F16</f>
+        <v>31.426790956901112</v>
+      </c>
+      <c r="K6" s="33">
+        <f>'FAR-csf'!G16</f>
+        <v>51.300016366594406</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="40">
+        <v>44250</v>
+      </c>
+      <c r="C7" s="32">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>981</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="J7" s="19">
+        <f>'FAR-csf'!F23</f>
+        <v>30.080000000000002</v>
+      </c>
+      <c r="K7" s="19">
+        <f>'FAR-csf'!G23</f>
+        <v>56.761981000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="40">
+        <v>44250</v>
+      </c>
+      <c r="C8" s="32">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>854</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40</v>
+      </c>
+      <c r="J8" s="19">
+        <f>'FAR-csf'!F24</f>
+        <v>30.080000000000002</v>
+      </c>
+      <c r="K8" s="19">
+        <f>'FAR-csf'!G24</f>
+        <v>54.849347199999997</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2319,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3281,6 +3629,118 @@
         <v>118</v>
       </c>
     </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3291,7 +3751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3543,6 +4005,9 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3557,6 +4022,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3752,16 +4220,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3951,6 +4421,114 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="25">
+        <f>out!E23</f>
+        <v>1.24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="25">
+        <f>out!E25</f>
+        <v>1.01</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1">
+        <f>out!E27</f>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="25">
+        <f>out!E30</f>
+        <v>1.04</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1">
+        <f>out!E32</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1">
+        <f>out!E34</f>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>63.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3960,10 +4538,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMG31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3972,7 +4550,10 @@
     <col min="2" max="2" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.88671875" style="1"/>
     <col min="6" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="1024" width="8.88671875" style="1"/>
+    <col min="8" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="1021" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4423,7 +5004,7 @@
         <v>60.554081661965562</v>
       </c>
       <c r="H15" s="19">
-        <f t="shared" ref="H15:H16" si="4">C15-D15</f>
+        <f t="shared" ref="H15:H24" si="4">C15-D15</f>
         <v>153</v>
       </c>
     </row>
@@ -4457,11 +5038,316 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>196</v>
+      </c>
+      <c r="D17" s="4">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1">
+        <v>347</v>
+      </c>
+      <c r="F17" s="1">
+        <v>24</v>
+      </c>
+      <c r="G17" s="25">
+        <v>39.5</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>184</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="25">
+        <v>43.1</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1">
+        <v>184</v>
+      </c>
+      <c r="D19" s="1">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <v>320</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40</v>
+      </c>
+      <c r="G19" s="25">
+        <v>66.2</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1">
+        <v>359</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24</v>
+      </c>
+      <c r="G20" s="25">
+        <v>40.6</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4">
+        <v>95</v>
+      </c>
+      <c r="D21" s="1">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1">
+        <v>190</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+      <c r="G21" s="25">
+        <v>37.6</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1">
+        <v>190</v>
+      </c>
+      <c r="D22" s="1">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1">
+        <v>330</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40</v>
+      </c>
+      <c r="G22" s="25">
+        <v>63.8</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C17</f>
+        <v>196</v>
+      </c>
+      <c r="D23" s="39">
+        <f>AVERAGE(D18,D19)</f>
+        <v>43.5</v>
+      </c>
+      <c r="E23" s="25">
+        <f>AVERAGE(E17,E19)</f>
+        <v>333.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="G23" s="25">
+        <v>56.761981000000006</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="4"/>
+        <v>152.5</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C20</f>
+        <v>166</v>
+      </c>
+      <c r="D24" s="39">
+        <f>AVERAGE(D21:D22)</f>
+        <v>50</v>
+      </c>
+      <c r="E24" s="25">
+        <f>AVERAGE(E20,E22)</f>
+        <v>344.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="G24" s="25">
+        <v>54.849347199999997</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4471,22 +5357,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="17.109375" style="1" customWidth="1"/>
-    <col min="19" max="1024" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="1025" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -4494,464 +5380,675 @@
         <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <f>out!E2</f>
         <v>1.38</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <f>out!E4</f>
         <v>1.08</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <f>out!E3</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>25.081389940867702</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>41.438818163172797</v>
       </c>
-      <c r="H2" s="19">
+      <c r="I2" s="19">
         <v>41</v>
       </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <f>out!E9</f>
         <v>1.62</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <f>out!E11</f>
         <v>1.34</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <f>out!E10</f>
         <v>2.61</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>25.025977140116701</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>40.319629836854702</v>
       </c>
-      <c r="H3" s="19">
+      <c r="I3" s="19">
         <v>91</v>
       </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <f>out!E16</f>
         <v>0.98</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <f>out!E18</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <f>out!E17</f>
         <v>1.39</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>25.1222057450431</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>35.632516311846899</v>
       </c>
-      <c r="H4" s="19">
+      <c r="I4" s="19">
         <v>71</v>
       </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1">
-        <f>D2</f>
+      <c r="D5" s="1">
+        <f>E2</f>
         <v>1.08</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <f>out!E5</f>
         <v>0.78</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <f>out!E6</f>
         <v>0.91</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>22.027475130269998</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>43.686509816306099</v>
       </c>
-      <c r="H5" s="19">
+      <c r="I5" s="19">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1">
-        <f>D3</f>
+      <c r="D6" s="1">
+        <f>E3</f>
         <v>1.34</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <f>out!E12</f>
         <v>0.91</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <f>out!E13</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>22.0036790717419</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>47.032349220362001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="I6" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1">
-        <f>D4</f>
+      <c r="D7" s="1">
+        <f>E4</f>
         <v>0.8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <f>out!E19</f>
         <v>0.6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f>out!E20</f>
         <v>0.64</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>21.969909354266001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>41.477432015699499</v>
       </c>
-      <c r="H7" s="19">
+      <c r="I7" s="19">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="1">
-        <f>E5</f>
+      <c r="D8" s="1">
+        <f>F5</f>
         <v>0.91</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <f>out!E7</f>
         <v>0.46</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <f>out!E8</f>
         <v>1.52</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>42.033898305084698</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>70.210467498603094</v>
       </c>
-      <c r="H8" s="19">
+      <c r="I8" s="19">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1">
-        <f>E6</f>
+      <c r="D9" s="1">
+        <f>F6</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <f>out!E14</f>
         <v>0.52</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f>out!E15</f>
         <v>1.93</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>41.833478387003197</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>72.088047577603703</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="19">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1">
-        <f>E7</f>
+      <c r="D10" s="1">
+        <f>F7</f>
         <v>0.64</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <f>out!E21</f>
         <v>0.39</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f>out!E22</f>
         <v>0.98</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>38.324386503067501</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>58.684216832822102</v>
       </c>
-      <c r="H10" s="19">
+      <c r="I10" s="19">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4">
-        <f>_xlfn.STDEV.P(C2:C4)</f>
-        <v>0.26398653164297781</v>
-      </c>
       <c r="D11" s="4">
         <f>_xlfn.STDEV.P(D2:D4)</f>
-        <v>0.22050447211388433</v>
+        <v>0.26398653164297781</v>
       </c>
       <c r="E11" s="4">
         <f>_xlfn.STDEV.P(E2:E4)</f>
-        <v>0.51525613910839441</v>
+        <v>0.22050447211388433</v>
       </c>
       <c r="F11" s="4">
         <f>_xlfn.STDEV.P(F2:F4)</f>
-        <v>3.943553496761161E-2</v>
+        <v>0.51525613910839441</v>
       </c>
       <c r="G11" s="4">
         <f>_xlfn.STDEV.P(G2:G4)</f>
+        <v>3.943553496761161E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f>_xlfn.STDEV.P(H2:H4)</f>
         <v>2.5151707893144999</v>
       </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19">
         <v>18.19732762431795</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4">
-        <f>_xlfn.STDEV.P(C5:C7)</f>
-        <v>0.22050447211388433</v>
-      </c>
       <c r="D12" s="4">
         <f>_xlfn.STDEV.P(D5:D7)</f>
-        <v>0.12710450643291726</v>
+        <v>0.22050447211388433</v>
       </c>
       <c r="E12" s="4">
         <f>_xlfn.STDEV.P(E5:E7)</f>
-        <v>0.19646882704388513</v>
+        <v>0.12710450643291726</v>
       </c>
       <c r="F12" s="4">
         <f>_xlfn.STDEV.P(F5:F7)</f>
-        <v>2.3618412748477768E-2</v>
+        <v>0.19646882704388513</v>
       </c>
       <c r="G12" s="4">
         <f>_xlfn.STDEV.P(G5:G7)</f>
+        <v>2.3618412748477768E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f>_xlfn.STDEV.P(H5:H7)</f>
         <v>2.2835588987738102</v>
       </c>
-      <c r="H12" s="19">
+      <c r="I12" s="19">
         <v>-10.293878958713464</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="4">
-        <f>_xlfn.STDEV.P(C8:C10)</f>
-        <v>0.19646882704388513</v>
-      </c>
       <c r="D13" s="4">
         <f>_xlfn.STDEV.P(D8:D10)</f>
-        <v>5.3124591501697516E-2</v>
+        <v>0.19646882704388513</v>
       </c>
       <c r="E13" s="4">
         <f>_xlfn.STDEV.P(E8:E10)</f>
-        <v>0.38904441334577178</v>
+        <v>5.3124591501697516E-2</v>
       </c>
       <c r="F13" s="4">
         <f>_xlfn.STDEV.P(F8:F10)</f>
-        <v>1.703407428354905</v>
+        <v>0.38904441334577178</v>
       </c>
       <c r="G13" s="4">
         <f>_xlfn.STDEV.P(G8:G10)</f>
+        <v>1.703407428354905</v>
+      </c>
+      <c r="H13" s="4">
+        <f>_xlfn.STDEV.P(H8:H10)</f>
         <v>5.9258608375889077</v>
       </c>
-      <c r="H13" s="19">
+      <c r="I13" s="19">
         <v>18.907097433455025</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="1">
-        <f>C2</f>
+      <c r="D14" s="1">
+        <f>D2</f>
         <v>1.38</v>
       </c>
-      <c r="D14" s="4">
-        <f>AVERAGE(D5,D8)</f>
+      <c r="E14" s="4">
+        <f>AVERAGE(E5,E8)</f>
         <v>0.62</v>
       </c>
-      <c r="E14" s="25">
-        <f>AVERAGE(E2,E8)</f>
+      <c r="F14" s="25">
+        <f>AVERAGE(F2,F8)</f>
         <v>1.9</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>59.400998287645102</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I14" s="19">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1">
-        <f>C3</f>
+      <c r="D15" s="1">
+        <f>D3</f>
         <v>1.62</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:D16" si="0">AVERAGE(D6,D9)</f>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E16" si="0">AVERAGE(E6,E9)</f>
         <v>0.71500000000000008</v>
       </c>
-      <c r="E15" s="25">
-        <f t="shared" ref="E15:E16" si="1">AVERAGE(E3,E9)</f>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F16" si="1">AVERAGE(F3,F9)</f>
         <v>2.27</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>60.554081661965597</v>
       </c>
-      <c r="H15" s="19">
+      <c r="I15" s="19">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="1">
-        <f>C4</f>
+      <c r="D16" s="1">
+        <f>D4</f>
         <v>0.98</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>0.495</v>
       </c>
-      <c r="E16" s="25">
+      <c r="F16" s="25">
         <f t="shared" si="1"/>
         <v>1.1850000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>51.300016366594399</v>
       </c>
-      <c r="H16" s="19">
+      <c r="I16" s="19">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2.04</v>
+      </c>
+      <c r="G17" s="1">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1.36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1.76</v>
+      </c>
+      <c r="G20" s="1">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1.27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1">
+        <f>D17</f>
+        <v>1.24</v>
+      </c>
+      <c r="E23" s="39">
+        <f>AVERAGE(E18,E19)</f>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F23" s="25">
+        <f>AVERAGE(F17,F19)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <v>56.761981000000006</v>
+      </c>
+      <c r="I23" s="1">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D20</f>
+        <v>1.04</v>
+      </c>
+      <c r="E24" s="39">
+        <f>AVERAGE(E21:E22)</f>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F24" s="25">
+        <f>AVERAGE(F20,F22)</f>
+        <v>1.5150000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>54.849347199999997</v>
+      </c>
+      <c r="I24" s="1">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4960,6 +6057,707 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4728730A-4531-47D1-BC67-8C18E3CB3687}">
+  <dimension ref="A1:AMK24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="17.109375" style="1" customWidth="1"/>
+    <col min="20" max="1025" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <f>out!E2</f>
+        <v>1.38</v>
+      </c>
+      <c r="E2" s="1">
+        <f>out!E4</f>
+        <v>1.08</v>
+      </c>
+      <c r="F2" s="1">
+        <f>out!E3</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>25.081389940867702</v>
+      </c>
+      <c r="H2" s="4">
+        <v>41.438818163172797</v>
+      </c>
+      <c r="I2" s="19">
+        <v>41</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <f>out!E9</f>
+        <v>1.62</v>
+      </c>
+      <c r="E3" s="1">
+        <f>out!E11</f>
+        <v>1.34</v>
+      </c>
+      <c r="F3" s="1">
+        <f>out!E10</f>
+        <v>2.61</v>
+      </c>
+      <c r="G3" s="4">
+        <v>25.025977140116701</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40.319629836854702</v>
+      </c>
+      <c r="I3" s="19">
+        <v>91</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <f>out!E16</f>
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="1">
+        <f>out!E18</f>
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <f>out!E17</f>
+        <v>1.39</v>
+      </c>
+      <c r="G4" s="4">
+        <v>25.1222057450431</v>
+      </c>
+      <c r="H4" s="4">
+        <v>35.632516311846899</v>
+      </c>
+      <c r="I4" s="19">
+        <v>71</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1">
+        <f>E2</f>
+        <v>1.08</v>
+      </c>
+      <c r="E5" s="1">
+        <f>out!E5</f>
+        <v>0.78</v>
+      </c>
+      <c r="F5" s="1">
+        <f>out!E6</f>
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="4">
+        <v>22.027475130269998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43.686509816306099</v>
+      </c>
+      <c r="I5" s="19">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1">
+        <f>E3</f>
+        <v>1.34</v>
+      </c>
+      <c r="E6" s="1">
+        <f>out!E12</f>
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="1">
+        <f>out!E13</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>22.0036790717419</v>
+      </c>
+      <c r="H6" s="4">
+        <v>47.032349220362001</v>
+      </c>
+      <c r="I6" s="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <f>E4</f>
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="1">
+        <f>out!E19</f>
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1">
+        <f>out!E20</f>
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="4">
+        <v>21.969909354266001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>41.477432015699499</v>
+      </c>
+      <c r="I7" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <f>F5</f>
+        <v>0.91</v>
+      </c>
+      <c r="E8" s="1">
+        <f>out!E7</f>
+        <v>0.46</v>
+      </c>
+      <c r="F8" s="1">
+        <f>out!E8</f>
+        <v>1.52</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42.033898305084698</v>
+      </c>
+      <c r="H8" s="4">
+        <v>70.210467498603094</v>
+      </c>
+      <c r="I8" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1">
+        <f>F6</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <f>out!E14</f>
+        <v>0.52</v>
+      </c>
+      <c r="F9" s="1">
+        <f>out!E15</f>
+        <v>1.93</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41.833478387003197</v>
+      </c>
+      <c r="H9" s="4">
+        <v>72.088047577603703</v>
+      </c>
+      <c r="I9" s="19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1">
+        <f>F7</f>
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="1">
+        <f>out!E21</f>
+        <v>0.39</v>
+      </c>
+      <c r="F10" s="1">
+        <f>out!E22</f>
+        <v>0.98</v>
+      </c>
+      <c r="G10" s="4">
+        <v>38.324386503067501</v>
+      </c>
+      <c r="H10" s="4">
+        <v>58.684216832822102</v>
+      </c>
+      <c r="I10" s="19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4">
+        <f>_xlfn.STDEV.P(D2:D4)</f>
+        <v>0.26398653164297781</v>
+      </c>
+      <c r="E11" s="4">
+        <f>_xlfn.STDEV.P(E2:E4)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="F11" s="4">
+        <f>_xlfn.STDEV.P(F2:F4)</f>
+        <v>0.51525613910839441</v>
+      </c>
+      <c r="G11" s="4">
+        <f>_xlfn.STDEV.P(G2:G4)</f>
+        <v>3.943553496761161E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f>_xlfn.STDEV.P(H2:H4)</f>
+        <v>2.5151707893144999</v>
+      </c>
+      <c r="I11" s="19">
+        <v>18.19732762431795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4">
+        <f>_xlfn.STDEV.P(D5:D7)</f>
+        <v>0.22050447211388433</v>
+      </c>
+      <c r="E12" s="4">
+        <f>_xlfn.STDEV.P(E5:E7)</f>
+        <v>0.12710450643291726</v>
+      </c>
+      <c r="F12" s="4">
+        <f>_xlfn.STDEV.P(F5:F7)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="G12" s="4">
+        <f>_xlfn.STDEV.P(G5:G7)</f>
+        <v>2.3618412748477768E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f>_xlfn.STDEV.P(H5:H7)</f>
+        <v>2.2835588987738102</v>
+      </c>
+      <c r="I12" s="19">
+        <v>-10.293878958713464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.P(D8:D10)</f>
+        <v>0.19646882704388513</v>
+      </c>
+      <c r="E13" s="4">
+        <f>_xlfn.STDEV.P(E8:E10)</f>
+        <v>5.3124591501697516E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f>_xlfn.STDEV.P(F8:F10)</f>
+        <v>0.38904441334577178</v>
+      </c>
+      <c r="G13" s="4">
+        <f>_xlfn.STDEV.P(G8:G10)</f>
+        <v>1.703407428354905</v>
+      </c>
+      <c r="H13" s="4">
+        <f>_xlfn.STDEV.P(H8:H10)</f>
+        <v>5.9258608375889077</v>
+      </c>
+      <c r="I13" s="19">
+        <v>18.907097433455025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D2</f>
+        <v>1.38</v>
+      </c>
+      <c r="E14" s="4">
+        <f>AVERAGE(E5,E8)</f>
+        <v>0.62</v>
+      </c>
+      <c r="F14" s="25">
+        <f>AVERAGE(F2,F8)</f>
+        <v>1.9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>59.400998287645102</v>
+      </c>
+      <c r="I14" s="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D3</f>
+        <v>1.62</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="E15:E16" si="0">AVERAGE(E6,E9)</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F16" si="1">AVERAGE(F3,F9)</f>
+        <v>2.27</v>
+      </c>
+      <c r="H15" s="4">
+        <v>60.554081661965597</v>
+      </c>
+      <c r="I15" s="19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D4</f>
+        <v>0.98</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="1"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>51.300016366594399</v>
+      </c>
+      <c r="I16" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2.04</v>
+      </c>
+      <c r="G17" s="1">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1.36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1.76</v>
+      </c>
+      <c r="G20" s="1">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1.27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1">
+        <f>D17</f>
+        <v>1.24</v>
+      </c>
+      <c r="E23" s="39">
+        <f>AVERAGE(E18,E19)</f>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F23" s="25">
+        <f>AVERAGE(F17,F19)</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="H23" s="1">
+        <v>56.761981000000006</v>
+      </c>
+      <c r="I23" s="1">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D20</f>
+        <v>1.04</v>
+      </c>
+      <c r="E24" s="39">
+        <f>AVERAGE(E21:E22)</f>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F24" s="25">
+        <f>AVERAGE(F20,F22)</f>
+        <v>1.5150000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30.080000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>54.849347199999997</v>
+      </c>
+      <c r="I24" s="1">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F48122-4A28-482A-9135-507475642A28}">
   <dimension ref="A1"/>
   <sheetViews>
